--- a/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
+++ b/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Alonso\Desktop\CHP\6.Gerenciamento de Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Alonso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630FC0E6-F5AF-4A75-93A1-5CA0772826BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC9D79-A54D-4604-9C92-5DDB4EA6A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Restante">"OFFSET([$#REF!.$B$12];0;0;1;COUNT([$#REF!.$B$12:.$L$12]))"</definedName>
     <definedName name="Restante2">"OFFSET(#ref!,0,0,1,COUNT(#ref!)))"</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -4725,7 +4725,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="249">
   <si>
     <t>Equipe</t>
   </si>
@@ -4812,9 +4812,6 @@
     <t>Criar ambiente do projeto</t>
   </si>
   <si>
-    <t>UC YYY</t>
-  </si>
-  <si>
     <t>Definir escopo</t>
   </si>
   <si>
@@ -4839,9 +4836,6 @@
     <t>Preparar Ambiente de Desenvolvimento</t>
   </si>
   <si>
-    <t>Especificar, Analisar e Projetar  UC XXX (escolhido para testar a arquitetura)</t>
-  </si>
-  <si>
     <t>Modelar,implementar e testar a arquitetura</t>
   </si>
   <si>
@@ -4858,21 +4852,6 @@
   </si>
   <si>
     <t>Construção</t>
-  </si>
-  <si>
-    <t>Modelar o UC XXX...</t>
-  </si>
-  <si>
-    <t>Modelar, Implementart e Testar o UC XXX</t>
-  </si>
-  <si>
-    <t>Modelar UC YYY</t>
-  </si>
-  <si>
-    <t>Modelar, Implementart e Testar o UC YYY</t>
-  </si>
-  <si>
-    <t>incluir os demais casos de uso do escopo...</t>
   </si>
   <si>
     <t>Transição</t>
@@ -5523,6 +5502,66 @@
   </si>
   <si>
     <t>gualonso14@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro.fukuya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oohgabrieloliveira@gmail.com </t>
+  </si>
+  <si>
+    <t>joaopaulokuchiki@gmail.com</t>
+  </si>
+  <si>
+    <t>zgustharomano@gmail.com</t>
+  </si>
+  <si>
+    <t>UC Manter Chamado</t>
+  </si>
+  <si>
+    <t>Especificar, Analisar e Projetar UC Manter Chamado</t>
+  </si>
+  <si>
+    <t>Modelar o UC Manter Chamado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelar, Implementart e Testar o UC Consultar Chamado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelar UC Consultar Chamado </t>
+  </si>
+  <si>
+    <t>Modelar, Implementart e Testar o UC Manter Chamado</t>
+  </si>
+  <si>
+    <t>UC Consultar Chamado</t>
+  </si>
+  <si>
+    <t>Modelar o UC Manter Usuário</t>
+  </si>
+  <si>
+    <t>Modelar, Implementart e Testar o UC Manter Usuário</t>
+  </si>
+  <si>
+    <t>Modelar o UC Fazer Login</t>
+  </si>
+  <si>
+    <t>Modelar, Implementart e Testar o UC Fazer Login</t>
+  </si>
+  <si>
+    <t>Modelar o UC Fazer Comentário</t>
+  </si>
+  <si>
+    <t>Modelar, Implementart e Testar o UC Fazer Comentário</t>
+  </si>
+  <si>
+    <t>UC Manter Usuário</t>
+  </si>
+  <si>
+    <t>UC Fazer Login</t>
+  </si>
+  <si>
+    <t>Fazer Comentário</t>
   </si>
 </sst>
 </file>
@@ -6461,6 +6500,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="41" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6564,9 +6606,6 @@
     </xf>
     <xf numFmtId="164" fontId="31" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -8449,8 +8488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8463,18 +8502,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="A2" s="132" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8492,10 +8531,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="166" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -8503,36 +8542,44 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="C8" s="130" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -8586,20 +8633,24 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{67CCBC6F-2BF7-4809-8256-A4393651F0D1}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{B9505BF3-C3B9-4710-BA2D-D8CCB8BE0384}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{4ED59655-8F98-4919-BFAF-FBEB3E7D8F51}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{0207DEB3-F15C-438D-8BB1-33F29E881854}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{B5405689-00BE-4D5C-B3B3-1B5DC9A30A08}"/>
   </hyperlinks>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId6"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ42"/>
+  <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8619,38 +8670,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="F1" s="135" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="F1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="F2" s="137" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="F2" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8671,20 +8722,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8727,23 +8778,23 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="H5" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5" s="15">
         <v>0</v>
       </c>
       <c r="J5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L5" s="16">
         <f>SUM(H5:K5)</f>
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -8763,16 +8814,16 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="H6" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I6" s="15">
         <v>0</v>
       </c>
       <c r="J6" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
         <v>5</v>
@@ -8790,18 +8841,33 @@
         <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13">
         <v>8</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="F7" s="14">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="15">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>10</v>
+      </c>
+      <c r="K7" s="15">
+        <v>8</v>
+      </c>
+      <c r="L7" s="16">
+        <f>SUM(H7:K7)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -8811,20 +8877,32 @@
         <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13">
         <v>8</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="15">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>5</v>
+      </c>
       <c r="L8" s="16">
         <f t="shared" ref="L8:L18" si="0">SUM(H8:K8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -8835,20 +8913,32 @@
         <v>16</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13">
         <v>8</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="15">
+        <v>5</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>5</v>
+      </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -8859,12 +8949,14 @@
         <v>16</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>6</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -8876,16 +8968,18 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="A11" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>7</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -8901,15 +8995,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="17">
+        <v>8</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -8925,10 +9021,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13">
         <v>8</v>
@@ -8949,10 +9045,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="13">
         <v>2</v>
@@ -8973,10 +9069,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="D15" s="13">
         <v>6</v>
@@ -8997,10 +9093,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="13">
         <v>6</v>
@@ -9021,10 +9117,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="13">
         <v>4</v>
@@ -9045,10 +9141,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="13">
         <v>10</v>
@@ -9069,10 +9165,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
@@ -9088,10 +9184,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="13">
         <v>2</v>
@@ -9103,14 +9199,14 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="132" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="8">
         <f>SUM(D12:D20)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -9123,12 +9219,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -9140,219 +9238,301 @@
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>235</v>
+      </c>
+      <c r="D23" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="13"/>
+        <v>238</v>
+      </c>
+      <c r="D24" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>237</v>
+      </c>
+      <c r="D25" s="13">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="13"/>
+        <v>236</v>
+      </c>
+      <c r="D26" s="13">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10">
+        <v>21</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>240</v>
+      </c>
+      <c r="D27" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="10">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="C29" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="13">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="8">
-        <f>SUM(D22:D30)</f>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>25</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="13">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>26</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="8">
+        <f>SUM(D22:D34)</f>
+        <v>108</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
+        <v>27</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>28</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>29</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>30</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
         <v>31</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="133"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="8">
-        <f>SUM(D32:D40)</f>
+      <c r="B44" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="8">
+        <f>SUM(D36:D44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D42" s="24">
-        <f>SUM(D11,D21,D31,D41)</f>
-        <v>72</v>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D46" s="24">
+        <f>SUM(D11,D21,D35,D45)</f>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9364,8 +9544,8 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
@@ -9380,8 +9560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9394,49 +9574,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
+      <c r="A1" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
+      <c r="A3" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B4" s="27">
-        <f>Backlog_Produto!$D$42</f>
-        <v>72</v>
+        <f>Backlog_Produto!$D$46</f>
+        <v>182</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" s="29">
         <v>0.5</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B6" s="31">
         <v>5</v>
@@ -9445,85 +9625,85 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B7" s="31">
         <v>10</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B8" s="32">
         <f>B6*B7*2</f>
         <v>100</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B9" s="34">
         <f>B11/2</f>
-        <v>1.08</v>
+        <v>2.73</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B10" s="34">
         <f>B4+(B4*B5)</f>
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B11" s="32">
         <f>B10/B8*2</f>
-        <v>2.16</v>
+        <v>5.46</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B12" s="36">
         <f>B11/4</f>
-        <v>0.54</v>
+        <v>1.365</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
+      <c r="A14" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B15" s="37">
         <v>20</v>
@@ -9532,17 +9712,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" s="39">
         <f>B10*B15</f>
-        <v>2160</v>
+        <v>5460</v>
       </c>
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B17" s="29">
         <v>0.2</v>
@@ -9551,27 +9731,27 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B18" s="40">
         <f>B16*B17</f>
-        <v>432</v>
+        <v>1092</v>
       </c>
       <c r="C18" s="38"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B19" s="42">
         <f>B16+B18</f>
-        <v>2592</v>
+        <v>6552</v>
       </c>
       <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B20" s="29">
         <v>0.2</v>
@@ -9580,21 +9760,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B21" s="43">
         <f>B19*B20</f>
-        <v>518.4</v>
+        <v>1310.4000000000001</v>
       </c>
       <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B22" s="42">
         <f>B19+B21</f>
-        <v>3110.4</v>
+        <v>7862.4</v>
       </c>
       <c r="C22" s="38"/>
     </row>
@@ -9615,7 +9795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9631,90 +9813,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="141" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="A1" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="A2" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="44">
         <f>Planejamento!$B$10</f>
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="F2" s="45"/>
-      <c r="G2" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="G2" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="143" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
+      <c r="C3" s="144" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
+      <c r="G3" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
       <c r="J3" s="50"/>
       <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -9722,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C5" s="55">
         <v>43132</v>
@@ -9734,7 +9916,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G5" s="55">
         <v>43132</v>
@@ -9750,7 +9932,7 @@
         <v>-4</v>
       </c>
       <c r="K5" s="59" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -9768,7 +9950,7 @@
       </c>
       <c r="E6" s="60"/>
       <c r="F6" s="57" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -9781,7 +9963,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" s="55">
         <v>43191</v>
@@ -9791,7 +9973,7 @@
       </c>
       <c r="E7" s="60"/>
       <c r="F7" s="57" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -9979,7 +10161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10039,183 +10223,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="141" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="A1" s="142" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" s="77" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" s="78" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" s="78" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" s="78" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" s="78" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" s="78" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" s="78" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" s="78" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" s="78" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" s="78" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" s="78" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" s="77" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" s="78" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" s="78" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" s="78" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" s="77" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" s="78" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" s="78" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" s="78" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D22" s="77" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" s="78" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D24" s="78" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D25" s="78" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D26" s="78" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D27" s="77" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="78" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D29" s="78" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D30" s="78" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="4:4" s="79" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="D31" s="80" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D32" s="81" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="152" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="152"/>
+      <c r="D33" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="153"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="78">
         <v>4290</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -10223,7 +10407,7 @@
         <v>5082</v>
       </c>
       <c r="E35" s="78" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -10231,7 +10415,7 @@
         <v>4356</v>
       </c>
       <c r="E36" s="78" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -10239,7 +10423,7 @@
         <v>5929</v>
       </c>
       <c r="E37" s="78" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -10247,7 +10431,7 @@
         <v>5005</v>
       </c>
       <c r="E38" s="78" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -10255,147 +10439,147 @@
         <v>4225</v>
       </c>
       <c r="E39" s="78" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="75" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="153" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
+      <c r="A41" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
     </row>
     <row r="42" spans="1:11" s="75" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="154" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
-      <c r="K42" s="154"/>
+      <c r="A42" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
     </row>
     <row r="43" spans="1:11" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="155"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
+      <c r="A43" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
     </row>
     <row r="44" spans="1:11" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="151" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
+      <c r="A44" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
+      <c r="A46" s="148" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
     </row>
     <row r="47" spans="1:11" s="84" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
+    </row>
+    <row r="48" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="150"/>
+      <c r="B48" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+    </row>
+    <row r="49" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="150"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="148" t="s">
+      <c r="I49" s="146"/>
+      <c r="J49" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-    </row>
-    <row r="48" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="149"/>
-      <c r="B48" s="145" t="s">
+      <c r="K49" s="85" t="s">
         <v>145</v>
-      </c>
-      <c r="C48" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="145" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="145" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" s="150" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-    </row>
-    <row r="49" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="149"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="I49" s="145"/>
-      <c r="J49" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="K49" s="85" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="86" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10403,29 +10587,29 @@
         <v>1</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C50" s="89">
         <v>43891</v>
       </c>
       <c r="D50" s="90" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E50" s="90" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F50" s="91" t="str">
         <f t="shared" ref="F50:F60" si="0">IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,0)))</f>
         <v>Média</v>
       </c>
       <c r="G50" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
+        <v>114</v>
+      </c>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
       <c r="J50" s="92"/>
       <c r="K50" s="92" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10433,7 +10617,7 @@
       <c r="B51" s="88"/>
       <c r="C51" s="89"/>
       <c r="D51" s="90" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E51" s="90"/>
       <c r="F51" s="91" t="e">
@@ -10569,8 +10753,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="90"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
+      <c r="H59" s="147"/>
+      <c r="I59" s="147"/>
       <c r="J59" s="92"/>
       <c r="K59" s="92"/>
     </row>
@@ -10585,8 +10769,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="90"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
       <c r="J60" s="92"/>
       <c r="K60" s="92"/>
     </row>
@@ -10649,8 +10833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10674,167 +10858,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
+      <c r="A1" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
     </row>
     <row r="2" spans="1:23" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
+      <c r="A2" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
     </row>
     <row r="3" spans="1:23" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
+      <c r="A3" s="161" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
     </row>
     <row r="4" spans="1:23" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="161" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
+      <c r="A4" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
     </row>
     <row r="5" spans="1:23" s="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="162" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
+      <c r="A5" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="156" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="156"/>
-      <c r="D7" s="156" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="156"/>
-      <c r="G7" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="M7" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="N7" s="156"/>
+      <c r="A7" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="157"/>
+      <c r="D7" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="157"/>
+      <c r="G7" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="M7" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="157"/>
     </row>
     <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="N8" s="99" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="M8" s="99" t="s">
-        <v>170</v>
-      </c>
-      <c r="N8" s="99" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="96" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B9" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="98" t="s">
         <v>167</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>174</v>
       </c>
       <c r="H9" s="96">
         <v>2</v>
@@ -10850,21 +11034,21 @@
         <v>8</v>
       </c>
       <c r="M9" s="100" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N9" s="101"/>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="96" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="97"/>
       <c r="G10" s="98" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
@@ -10874,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="100" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N10" s="101"/>
     </row>
@@ -10883,15 +11067,15 @@
       <c r="B11" s="97"/>
       <c r="D11" s="96"/>
       <c r="E11" s="97"/>
-      <c r="G11" s="156" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
+      <c r="G11" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
       <c r="M11" s="100" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N11" s="101"/>
     </row>
@@ -10901,22 +11085,22 @@
       <c r="D12" s="96"/>
       <c r="E12" s="97"/>
       <c r="G12" s="98" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I12" s="98" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K12" s="99" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M12" s="100" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N12" s="101"/>
     </row>
@@ -10926,7 +11110,7 @@
       <c r="D13" s="96"/>
       <c r="E13" s="97"/>
       <c r="G13" s="98" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H13" s="96">
         <v>1</v>
@@ -10938,11 +11122,11 @@
         <v>3</v>
       </c>
       <c r="M13" s="100" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N13" s="101"/>
       <c r="W13" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10951,7 +11135,7 @@
       <c r="D14" s="96"/>
       <c r="E14" s="97"/>
       <c r="G14" s="98" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H14" s="96"/>
       <c r="I14" s="96"/>
@@ -10961,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -10971,7 +11155,7 @@
       <c r="D15" s="96"/>
       <c r="E15" s="97"/>
       <c r="G15" s="98" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H15" s="96">
         <v>1</v>
@@ -10983,7 +11167,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N15" s="101"/>
     </row>
@@ -10992,18 +11176,18 @@
       <c r="B16" s="97"/>
       <c r="D16" s="96"/>
       <c r="E16" s="97"/>
-      <c r="G16" s="157" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
+      <c r="G16" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
       <c r="K16" s="102">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
       </c>
       <c r="M16" s="100" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N16" s="101"/>
     </row>
@@ -11013,7 +11197,7 @@
       <c r="D17" s="96"/>
       <c r="E17" s="97"/>
       <c r="M17" s="100" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N17" s="101"/>
     </row>
@@ -11023,7 +11207,7 @@
       <c r="D18" s="96"/>
       <c r="E18" s="97"/>
       <c r="M18" s="100" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="N18" s="101"/>
     </row>
@@ -11033,7 +11217,7 @@
       <c r="D19" s="96"/>
       <c r="E19" s="97"/>
       <c r="M19" s="100" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N19" s="101"/>
     </row>
@@ -11043,25 +11227,25 @@
       <c r="D20" s="96"/>
       <c r="E20" s="97"/>
       <c r="M20" s="100" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N20" s="101"/>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M21" s="100" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N21" s="101"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M22" s="100" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="N22" s="101"/>
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M23" s="103" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N23" s="104">
         <f>SUM(N9:N22)</f>
@@ -11070,7 +11254,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="103" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N24" s="102">
         <f>(N23*0.01)+0.65</f>
@@ -11079,7 +11263,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="103" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N25" s="105">
         <f>K16*N24</f>
@@ -11088,7 +11272,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="103" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N26" s="106">
         <v>19</v>
@@ -11096,7 +11280,7 @@
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M27" s="107" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N27" s="108">
         <f>N25*N26</f>
@@ -11162,118 +11346,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
+      <c r="A1" s="159" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="164" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="E3" s="164" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
+      <c r="A3" s="165" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="E3" s="165" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B4" s="110">
         <f>'#Estimativa-APF#'!$N$27</f>
         <v>172.9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="165" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" s="163" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="164"/>
       <c r="N4" s="111"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" s="29">
         <v>0</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="166"/>
+      <c r="F5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163" t="s">
+      <c r="G5" s="164"/>
+      <c r="H5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163" t="s">
+      <c r="I5" s="164"/>
+      <c r="J5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163" t="s">
+      <c r="K5" s="164"/>
+      <c r="L5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="163"/>
+      <c r="M5" s="164"/>
       <c r="N5" s="41" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B6" s="113">
         <f>B4+(B4*B5)</f>
         <v>172.9</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="165"/>
+        <v>53</v>
+      </c>
+      <c r="E6" s="166"/>
       <c r="F6" s="114">
         <f>B6*G6</f>
         <v>8.6450000000000014</v>
@@ -11306,14 +11490,14 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
       </c>
       <c r="C7" s="30"/>
       <c r="E7" s="116" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F7" s="114">
         <f>F6*G7</f>
@@ -11350,16 +11534,16 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B8" s="31">
         <v>40</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E8" s="116" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F8" s="114">
         <f>F6*G8</f>
@@ -11396,16 +11580,16 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B9" s="31">
         <v>2</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E9" s="116" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F9" s="114">
         <f>F6*G9</f>
@@ -11442,17 +11626,17 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="118" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B10" s="119">
         <f>(B7*B8)*B9</f>
         <v>80</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E10" s="116" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F10" s="114">
         <f>F6*G10</f>
@@ -11489,17 +11673,17 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B11" s="120">
         <f>B6/B10*2</f>
         <v>4.3224999999999998</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E11" s="116" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F11" s="114">
         <f>F6*G11</f>
@@ -11536,17 +11720,17 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B12" s="120">
         <f>B11/4</f>
         <v>1.0806249999999999</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" ref="F12:M12" si="0">SUM(F7:F11)</f>
@@ -11584,17 +11768,17 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B13" s="124">
         <f>B11/B9</f>
         <v>2.1612499999999999</v>
       </c>
       <c r="C13" s="118" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E13" s="116" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F13" s="114">
         <f>F6*G13</f>
@@ -11631,7 +11815,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="116" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F14" s="114">
         <f>F6*G14</f>
@@ -11668,7 +11852,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="121" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F15" s="122">
         <f t="shared" ref="F15:M15" si="1">SUM(F13:F14)</f>
@@ -11705,13 +11889,13 @@
       <c r="N15" s="121"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="164" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
+      <c r="A16" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
       <c r="E16" s="41" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F16" s="125">
         <f t="shared" ref="F16:M16" si="2">F12+F15</f>
@@ -11752,7 +11936,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B17" s="128">
         <v>20</v>
@@ -11762,7 +11946,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B18" s="39">
         <f>B6*B17</f>
@@ -11774,7 +11958,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B19" s="29">
         <v>0</v>
@@ -11784,7 +11968,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B20" s="40">
         <f>B18*B19</f>
@@ -11796,7 +11980,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B21" s="129">
         <f>B18+B20</f>
@@ -11807,7 +11991,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B22" s="29">
         <v>0.2</v>
@@ -11817,7 +12001,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="43">
         <f>B21*B22</f>
@@ -11827,7 +12011,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B24" s="129">
         <f>B21+B23</f>

--- a/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
+++ b/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Alonso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC9D79-A54D-4604-9C92-5DDB4EA6A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -25,17 +24,17 @@
     <definedName name="Restante">"OFFSET([$#REF!.$B$12];0;0;1;COUNT([$#REF!.$B$12:.$L$12]))"</definedName>
     <definedName name="Restante2">"OFFSET(#ref!,0,0,1,COUNT(#ref!)))"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,12 +53,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,12 +514,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -614,12 +613,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="D48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="G48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1445,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="H48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="J49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="K49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1635,12 +1634,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1787,7 +1786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1947,7 +1946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="M7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2107,7 +2106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="N8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2207,7 +2206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2340,7 +2339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2395,7 +2394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="M10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2508,7 +2507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2646,7 +2645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
+    <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2739,7 +2738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2877,7 +2876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
+    <comment ref="M12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2990,7 +2989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3055,7 +3054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
+    <comment ref="M13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3158,7 +3157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3203,7 +3202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000011000000}">
+    <comment ref="M14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3306,7 +3305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000012000000}">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3371,7 +3370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000013000000}">
+    <comment ref="M15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3740,7 +3739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000014000000}">
+    <comment ref="M16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3843,7 +3842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000015000000}">
+    <comment ref="M17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4041,7 +4040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000016000000}">
+    <comment ref="M18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4144,7 +4143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000017000000}">
+    <comment ref="M19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4247,7 +4246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000018000000}">
+    <comment ref="M20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4396,7 +4395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000019000000}">
+    <comment ref="M21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4499,7 +4498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001A000000}">
+    <comment ref="M22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4702,12 +4701,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4725,7 +4724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="250">
   <si>
     <t>Equipe</t>
   </si>
@@ -4806,9 +4805,6 @@
     <t>Realizar o pré-projeto</t>
   </si>
   <si>
-    <t>UC XXX</t>
-  </si>
-  <si>
     <t>Criar ambiente do projeto</t>
   </si>
   <si>
@@ -5002,9 +4998,6 @@
   </si>
   <si>
     <t>Planejado</t>
-  </si>
-  <si>
-    <t>UC YYY, UC WWW,</t>
   </si>
   <si>
     <t>Lista de Riscos</t>
@@ -5561,13 +5554,22 @@
     <t>UC Fazer Login</t>
   </si>
   <si>
-    <t>Fazer Comentário</t>
+    <t>UC Fazer Comentário</t>
+  </si>
+  <si>
+    <t>UC Fazer Login, e UC Fazer Comentário.</t>
+  </si>
+  <si>
+    <t>UC Manter Usuário.</t>
+  </si>
+  <si>
+    <t>UC Manter Chamado e UC Consultar Chamado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="[$-416]General"/>
     <numFmt numFmtId="165" formatCode="[$-416]0"/>
@@ -5779,21 +5781,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5866,6 +5853,21 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6111,7 +6113,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6276,37 +6278,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="29" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="29" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -6319,7 +6290,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="171" fontId="24" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6348,61 +6319,61 @@
     <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="13" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="13" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="30" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="14" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="14" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -6426,7 +6397,7 @@
     <xf numFmtId="164" fontId="17" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6435,27 +6406,27 @@
     <xf numFmtId="164" fontId="16" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="35" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="36" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="37" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6473,14 +6444,14 @@
     <xf numFmtId="164" fontId="22" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="35" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="16" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="31" fillId="16" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="29" fillId="16" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="31" fillId="16" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="29" fillId="16" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="10" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6489,18 +6460,18 @@
     <xf numFmtId="165" fontId="26" fillId="12" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="40" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="38" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="29" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="41" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6510,6 +6481,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6518,18 +6501,6 @@
     <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6548,34 +6519,34 @@
     <xf numFmtId="164" fontId="28" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="34" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="32" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="33" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="31" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6583,7 +6554,7 @@
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6598,34 +6569,65 @@
     <xf numFmtId="164" fontId="17" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="37" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="40" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="40" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="cf1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="cf2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="cf3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="cf4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="cf5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="cf6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="ConditionalStyle_1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Excel Built-in Comma" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Excel Built-in Currency" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Excel Built-in Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Excel Built-in Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Heading" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Heading1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8"/>
+    <cellStyle name="cf1" xfId="1"/>
+    <cellStyle name="cf2" xfId="2"/>
+    <cellStyle name="cf3" xfId="3"/>
+    <cellStyle name="cf4" xfId="4"/>
+    <cellStyle name="cf5" xfId="5"/>
+    <cellStyle name="cf6" xfId="6"/>
+    <cellStyle name="ConditionalStyle_1" xfId="7"/>
+    <cellStyle name="Excel Built-in Comma" xfId="8"/>
+    <cellStyle name="Excel Built-in Currency" xfId="9"/>
+    <cellStyle name="Excel Built-in Normal" xfId="10"/>
+    <cellStyle name="Excel Built-in Percent" xfId="11"/>
+    <cellStyle name="Heading" xfId="12"/>
+    <cellStyle name="Heading1" xfId="13"/>
+    <cellStyle name="Hiperlink" xfId="16" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Result2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Result" xfId="14"/>
+    <cellStyle name="Result2" xfId="15"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -8485,7 +8487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -8502,18 +8504,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="A2" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8531,10 +8533,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="130" t="s">
-        <v>228</v>
+        <v>221</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -8542,10 +8544,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="130" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8553,10 +8555,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="130" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8564,10 +8566,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="130" t="s">
-        <v>231</v>
+        <v>224</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8575,10 +8577,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="130" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -8632,11 +8634,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{67CCBC6F-2BF7-4809-8256-A4393651F0D1}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{B9505BF3-C3B9-4710-BA2D-D8CCB8BE0384}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{4ED59655-8F98-4919-BFAF-FBEB3E7D8F51}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{0207DEB3-F15C-438D-8BB1-33F29E881854}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{B5405689-00BE-4D5C-B3B3-1B5DC9A30A08}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId6"/>
@@ -8646,11 +8648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8670,38 +8672,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="F1" s="136" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="F2" s="138" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="F2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8722,20 +8724,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8778,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H5" s="15">
         <v>10</v>
@@ -8805,7 +8807,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
@@ -8814,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H6" s="15">
         <v>10</v>
@@ -8841,16 +8843,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="14">
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H7" s="15">
         <v>5</v>
@@ -8877,7 +8879,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13">
         <v>8</v>
@@ -8886,7 +8888,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H8" s="15">
         <v>5</v>
@@ -8913,7 +8915,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13">
         <v>8</v>
@@ -8922,7 +8924,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H9" s="15">
         <v>5</v>
@@ -8949,7 +8951,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="13">
         <v>2</v>
@@ -8968,14 +8970,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
+      <c r="A11" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" s="17">
         <v>7</v>
@@ -8995,10 +8997,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -9021,10 +9023,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13">
         <v>8</v>
@@ -9045,10 +9047,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="13">
         <v>2</v>
@@ -9069,10 +9071,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D15" s="13">
         <v>6</v>
@@ -9093,10 +9095,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="13">
         <v>6</v>
@@ -9117,10 +9119,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="13">
         <v>4</v>
@@ -9141,10 +9143,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="13">
         <v>10</v>
@@ -9165,10 +9167,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
@@ -9184,10 +9186,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="13">
         <v>2</v>
@@ -9199,11 +9201,11 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
+      <c r="A21" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="8">
         <f>SUM(D12:D20)</f>
         <v>44</v>
@@ -9219,13 +9221,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -9238,10 +9240,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -9252,10 +9254,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D24" s="13">
         <v>10</v>
@@ -9266,10 +9268,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D25" s="13">
         <v>8</v>
@@ -9280,10 +9282,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D26" s="13">
         <v>8</v>
@@ -9294,10 +9296,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D27" s="13">
         <v>12</v>
@@ -9308,10 +9310,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D28" s="13">
         <v>12</v>
@@ -9322,13 +9324,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D29" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -9336,13 +9338,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D30" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -9350,10 +9352,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D31" s="13">
         <v>6</v>
@@ -9364,10 +9366,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D32" s="13">
         <v>6</v>
@@ -9378,10 +9380,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
@@ -9392,24 +9394,24 @@
         <v>22</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
+      <c r="A35" s="129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="8">
         <f>SUM(D22:D34)</f>
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9417,136 +9419,154 @@
         <v>23</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>24</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="D38" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>26</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="D39" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>27</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>28</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>29</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="D42" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>31</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="134"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="8">
         <f>SUM(D36:D44)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D46" s="24">
         <f>SUM(D11,D21,D35,D45)</f>
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9557,11 +9577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9574,49 +9594,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
+      <c r="A1" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
     </row>
     <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="27">
         <f>Backlog_Produto!$D$46</f>
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="29">
         <v>0.5</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="31">
         <v>5</v>
@@ -9625,85 +9645,85 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="31">
         <v>10</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="32">
         <f>B6*B7*2</f>
         <v>100</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="34">
         <f>B11/2</f>
-        <v>2.73</v>
+        <v>2.97</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="34">
         <f>B4+(B4*B5)</f>
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="32">
         <f>B10/B8*2</f>
-        <v>5.46</v>
+        <v>5.94</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="36">
         <f>B11/4</f>
-        <v>1.365</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="C12" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="133" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="37">
         <v>20</v>
@@ -9712,17 +9732,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="39">
         <f>B10*B15</f>
-        <v>5460</v>
+        <v>5940</v>
       </c>
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="29">
         <v>0.2</v>
@@ -9731,27 +9751,27 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="40">
         <f>B16*B17</f>
-        <v>1092</v>
+        <v>1188</v>
       </c>
       <c r="C18" s="38"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="42">
         <f>B16+B18</f>
-        <v>6552</v>
+        <v>7128</v>
       </c>
       <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="29">
         <v>0.2</v>
@@ -9760,21 +9780,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="43">
         <f>B19*B20</f>
-        <v>1310.4000000000001</v>
+        <v>1425.6000000000001</v>
       </c>
       <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="42">
         <f>B19+B21</f>
-        <v>7862.4</v>
+        <v>8553.6</v>
       </c>
       <c r="C22" s="38"/>
     </row>
@@ -9792,18 +9812,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="74" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="66" customWidth="1"/>
     <col min="2" max="2" width="45.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="66" customWidth="1"/>
     <col min="4" max="6" width="13.125" style="4" customWidth="1"/>
     <col min="7" max="9" width="13" style="4" customWidth="1"/>
     <col min="10" max="10" width="13" style="23" customWidth="1"/>
@@ -9813,300 +9833,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="44">
         <f>Planejamento!$B$10</f>
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="F2" s="45"/>
-      <c r="G2" s="143" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="G2" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="145" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
       <c r="J3" s="50"/>
       <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="D4" s="49" t="s">
         <v>82</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>83</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>85</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="49" t="s">
         <v>86</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="53">
         <v>1</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="160">
+        <v>45894</v>
+      </c>
+      <c r="D5" s="160">
+        <v>45903</v>
+      </c>
+      <c r="E5" s="161">
+        <v>24</v>
+      </c>
+      <c r="F5" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="55">
+      <c r="G5" s="160">
         <v>43132</v>
       </c>
-      <c r="D5" s="55">
-        <v>43159</v>
-      </c>
-      <c r="E5" s="56">
-        <v>24</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="55">
-        <v>43132</v>
-      </c>
-      <c r="H5" s="55">
+      <c r="H5" s="160">
         <v>43160</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="161">
         <v>28</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="163">
         <f>E5-I5</f>
         <v>-4</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>90</v>
+      <c r="K5" s="164" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="55">
-        <v>43160</v>
-      </c>
-      <c r="D6" s="55">
-        <v>43189</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="59"/>
+      <c r="B6" s="159" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="160">
+        <v>45904</v>
+      </c>
+      <c r="D6" s="160">
+        <v>45931</v>
+      </c>
+      <c r="E6" s="165">
+        <v>36</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="164"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <v>3</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="55">
-        <v>43191</v>
-      </c>
-      <c r="D7" s="55">
-        <v>43220</v>
-      </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="59"/>
+      <c r="B7" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="160">
+        <v>45932</v>
+      </c>
+      <c r="D7" s="160">
+        <v>45951</v>
+      </c>
+      <c r="E7" s="161">
+        <v>24</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="164"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <v>4</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
+      <c r="B8" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="55">
+        <v>45952</v>
+      </c>
+      <c r="D8" s="55">
+        <v>45978</v>
+      </c>
+      <c r="E8" s="56">
+        <v>34</v>
+      </c>
+      <c r="F8" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <v>5</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <v>8</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <v>9</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
         <v>10</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="71">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="63">
         <f>SUM(E5:E14)</f>
-        <v>24</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="71">
+        <v>118</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63">
         <f>SUM(I5:I14)</f>
         <v>28</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="65">
         <f>SUM(J5:J14)</f>
         <v>-4</v>
       </c>
-      <c r="K15" s="72"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="J16" s="23"/>
@@ -10147,18 +10181,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
       <formula1>"Planejado,Em execução,Entregue,Não planejado"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10167,621 +10201,615 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="76" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="76" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="76" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="76" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="76" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="76" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="76" customWidth="1"/>
-    <col min="8" max="9" width="12.25" style="76" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="76" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="76" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="76" customWidth="1"/>
-    <col min="13" max="14" width="20.5" style="76" customWidth="1"/>
-    <col min="15" max="256" width="8.5" style="76" customWidth="1"/>
-    <col min="257" max="258" width="6.5" style="76" customWidth="1"/>
-    <col min="259" max="259" width="13.875" style="76" customWidth="1"/>
-    <col min="260" max="260" width="9" style="76" customWidth="1"/>
-    <col min="261" max="261" width="13.5" style="76" customWidth="1"/>
-    <col min="262" max="262" width="10" style="76" customWidth="1"/>
-    <col min="263" max="263" width="12.25" style="76" customWidth="1"/>
-    <col min="264" max="264" width="5.875" style="76" customWidth="1"/>
-    <col min="265" max="265" width="24.25" style="76" customWidth="1"/>
-    <col min="266" max="266" width="32.5" style="76" customWidth="1"/>
-    <col min="267" max="267" width="17.625" style="76" customWidth="1"/>
-    <col min="268" max="268" width="8.5" style="76" customWidth="1"/>
-    <col min="269" max="270" width="20.5" style="76" customWidth="1"/>
-    <col min="271" max="512" width="8.5" style="76" customWidth="1"/>
-    <col min="513" max="514" width="6.5" style="76" customWidth="1"/>
-    <col min="515" max="515" width="13.875" style="76" customWidth="1"/>
-    <col min="516" max="516" width="9" style="76" customWidth="1"/>
-    <col min="517" max="517" width="13.5" style="76" customWidth="1"/>
-    <col min="518" max="518" width="10" style="76" customWidth="1"/>
-    <col min="519" max="519" width="12.25" style="76" customWidth="1"/>
-    <col min="520" max="520" width="5.875" style="76" customWidth="1"/>
-    <col min="521" max="521" width="24.25" style="76" customWidth="1"/>
-    <col min="522" max="522" width="32.5" style="76" customWidth="1"/>
-    <col min="523" max="523" width="17.625" style="76" customWidth="1"/>
-    <col min="524" max="524" width="8.5" style="76" customWidth="1"/>
-    <col min="525" max="526" width="20.5" style="76" customWidth="1"/>
-    <col min="527" max="768" width="8.5" style="76" customWidth="1"/>
-    <col min="769" max="770" width="6.5" style="76" customWidth="1"/>
-    <col min="771" max="771" width="13.875" style="76" customWidth="1"/>
-    <col min="772" max="772" width="9" style="76" customWidth="1"/>
-    <col min="773" max="773" width="13.5" style="76" customWidth="1"/>
-    <col min="774" max="774" width="10" style="76" customWidth="1"/>
-    <col min="775" max="775" width="12.25" style="76" customWidth="1"/>
-    <col min="776" max="776" width="5.875" style="76" customWidth="1"/>
-    <col min="777" max="777" width="24.25" style="76" customWidth="1"/>
-    <col min="778" max="778" width="32.5" style="76" customWidth="1"/>
-    <col min="779" max="779" width="17.625" style="76" customWidth="1"/>
-    <col min="780" max="780" width="8.5" style="76" customWidth="1"/>
-    <col min="781" max="782" width="20.5" style="76" customWidth="1"/>
-    <col min="783" max="1024" width="8.5" style="76" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="68" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="68" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="68" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="68" customWidth="1"/>
+    <col min="8" max="9" width="12.25" style="68" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="68" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="68" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="68" customWidth="1"/>
+    <col min="13" max="14" width="20.5" style="68" customWidth="1"/>
+    <col min="15" max="256" width="8.5" style="68" customWidth="1"/>
+    <col min="257" max="258" width="6.5" style="68" customWidth="1"/>
+    <col min="259" max="259" width="13.875" style="68" customWidth="1"/>
+    <col min="260" max="260" width="9" style="68" customWidth="1"/>
+    <col min="261" max="261" width="13.5" style="68" customWidth="1"/>
+    <col min="262" max="262" width="10" style="68" customWidth="1"/>
+    <col min="263" max="263" width="12.25" style="68" customWidth="1"/>
+    <col min="264" max="264" width="5.875" style="68" customWidth="1"/>
+    <col min="265" max="265" width="24.25" style="68" customWidth="1"/>
+    <col min="266" max="266" width="32.5" style="68" customWidth="1"/>
+    <col min="267" max="267" width="17.625" style="68" customWidth="1"/>
+    <col min="268" max="268" width="8.5" style="68" customWidth="1"/>
+    <col min="269" max="270" width="20.5" style="68" customWidth="1"/>
+    <col min="271" max="512" width="8.5" style="68" customWidth="1"/>
+    <col min="513" max="514" width="6.5" style="68" customWidth="1"/>
+    <col min="515" max="515" width="13.875" style="68" customWidth="1"/>
+    <col min="516" max="516" width="9" style="68" customWidth="1"/>
+    <col min="517" max="517" width="13.5" style="68" customWidth="1"/>
+    <col min="518" max="518" width="10" style="68" customWidth="1"/>
+    <col min="519" max="519" width="12.25" style="68" customWidth="1"/>
+    <col min="520" max="520" width="5.875" style="68" customWidth="1"/>
+    <col min="521" max="521" width="24.25" style="68" customWidth="1"/>
+    <col min="522" max="522" width="32.5" style="68" customWidth="1"/>
+    <col min="523" max="523" width="17.625" style="68" customWidth="1"/>
+    <col min="524" max="524" width="8.5" style="68" customWidth="1"/>
+    <col min="525" max="526" width="20.5" style="68" customWidth="1"/>
+    <col min="527" max="768" width="8.5" style="68" customWidth="1"/>
+    <col min="769" max="770" width="6.5" style="68" customWidth="1"/>
+    <col min="771" max="771" width="13.875" style="68" customWidth="1"/>
+    <col min="772" max="772" width="9" style="68" customWidth="1"/>
+    <col min="773" max="773" width="13.5" style="68" customWidth="1"/>
+    <col min="774" max="774" width="10" style="68" customWidth="1"/>
+    <col min="775" max="775" width="12.25" style="68" customWidth="1"/>
+    <col min="776" max="776" width="5.875" style="68" customWidth="1"/>
+    <col min="777" max="777" width="24.25" style="68" customWidth="1"/>
+    <col min="778" max="778" width="32.5" style="68" customWidth="1"/>
+    <col min="779" max="779" width="17.625" style="68" customWidth="1"/>
+    <col min="780" max="780" width="8.5" style="68" customWidth="1"/>
+    <col min="781" max="782" width="20.5" style="68" customWidth="1"/>
+    <col min="783" max="1024" width="8.5" style="68" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="78" t="s">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="70" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="78" t="s">
+    <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="70" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="78" t="s">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="70" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="78" t="s">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="70" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="78" t="s">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="70" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="78" t="s">
+    <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="70" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="78" t="s">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="70" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="78" t="s">
+    <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="78" t="s">
+    <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="78" t="s">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="70" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="77" t="s">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="70" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="78" t="s">
+    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="70" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="78" t="s">
+    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="69" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="78" t="s">
+    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="77" t="s">
+    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="70" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="78" t="s">
+    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="78" t="s">
+    <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="69" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="78" t="s">
+    <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="70" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="77" t="s">
+    <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="70" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="78" t="s">
+    <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="70" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="78" t="s">
+    <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="70" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="78" t="s">
+    <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="69" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="78" t="s">
+    <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="70" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="77" t="s">
+    <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="70" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="78" t="s">
+    <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="70" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="78" t="s">
+    <row r="31" spans="4:4" s="71" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="78" t="s">
+    <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="73" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="4:4" s="79" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="80" t="s">
+    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="139" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="81" t="s">
+      <c r="E33" s="139"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="70">
+        <v>4290</v>
+      </c>
+      <c r="E34" s="70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="153" t="s">
+    <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="70">
+        <v>5082</v>
+      </c>
+      <c r="E35" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="153"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="78">
-        <v>4290</v>
-      </c>
-      <c r="E34" s="78" t="s">
+    </row>
+    <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="70">
+        <v>4356</v>
+      </c>
+      <c r="E36" s="70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="78">
-        <v>5082</v>
-      </c>
-      <c r="E35" s="78" t="s">
+    <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="70">
+        <v>5929</v>
+      </c>
+      <c r="E37" s="70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="78">
-        <v>4356</v>
-      </c>
-      <c r="E36" s="78" t="s">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="70">
+        <v>5005</v>
+      </c>
+      <c r="E38" s="70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="78">
-        <v>5929</v>
-      </c>
-      <c r="E37" s="78" t="s">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="70">
+        <v>4225</v>
+      </c>
+      <c r="E39" s="70" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="78">
-        <v>5005</v>
-      </c>
-      <c r="E38" s="78" t="s">
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="140" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="78">
-        <v>4225</v>
-      </c>
-      <c r="E39" s="78" t="s">
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+    </row>
+    <row r="42" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="141" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:11" s="75" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="154" t="s">
+      <c r="B42" s="141"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+    </row>
+    <row r="43" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="154"/>
-    </row>
-    <row r="42" spans="1:11" s="75" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+    </row>
+    <row r="44" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-    </row>
-    <row r="43" spans="1:11" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-    </row>
-    <row r="44" spans="1:11" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+    </row>
+    <row r="47" spans="1:11" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="C47" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
-    </row>
-    <row r="47" spans="1:11" s="84" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="82" t="s">
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146"/>
+    </row>
+    <row r="48" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="147"/>
+      <c r="B48" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="149" t="s">
+      <c r="C48" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="149"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="149"/>
-    </row>
-    <row r="48" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="150"/>
-      <c r="B48" s="146" t="s">
+      <c r="D48" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="E48" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="146" t="s">
+      <c r="G48" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="146" t="s">
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+    </row>
+    <row r="49" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="147"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" s="143"/>
+      <c r="J49" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="78" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="79">
+        <v>1</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="81">
+        <v>43891</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-    </row>
-    <row r="49" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="150"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146" t="s">
-        <v>143</v>
-      </c>
-      <c r="I49" s="146"/>
-      <c r="J49" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="K49" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="86" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="87">
-        <v>1</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="89">
-        <v>43891</v>
-      </c>
-      <c r="D50" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="91" t="str">
+      <c r="F50" s="83" t="str">
         <f t="shared" ref="F50:F60" si="0">IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,0)))</f>
         <v>Média</v>
       </c>
-      <c r="G50" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="91" t="e">
+      <c r="G50" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="82"/>
+      <c r="F51" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="90"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-    </row>
-    <row r="52" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="91" t="e">
+      <c r="G51" s="82"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+    </row>
+    <row r="52" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="90"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-    </row>
-    <row r="53" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="87"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="91" t="e">
+      <c r="G52" s="82"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+    </row>
+    <row r="53" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="90"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-    </row>
-    <row r="54" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="91" t="e">
+      <c r="G53" s="82"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+    </row>
+    <row r="54" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-    </row>
-    <row r="55" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="91" t="e">
+      <c r="G54" s="82"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+    </row>
+    <row r="55" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G55" s="90"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-    </row>
-    <row r="56" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="91" t="e">
+      <c r="G55" s="82"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+    </row>
+    <row r="56" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-    </row>
-    <row r="57" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="87"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="91" t="e">
+      <c r="G56" s="82"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+    </row>
+    <row r="57" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G57" s="90"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-    </row>
-    <row r="58" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="91" t="e">
+      <c r="G57" s="82"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+    </row>
+    <row r="58" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="79"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="90"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-    </row>
-    <row r="59" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="91" t="e">
+      <c r="G58" s="82"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+    </row>
+    <row r="59" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="79"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="90"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-    </row>
-    <row r="60" spans="1:11" s="86" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="91" t="e">
+      <c r="G59" s="82"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+    </row>
+    <row r="60" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G60" s="90"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
@@ -10796,6 +10824,12 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:K48"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
@@ -10809,16 +10843,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50:D60 IY50:IY60 SU50:SU60 ACQ50:ACQ60 D65558:D65560 IY65558:IY65560 SU65558:SU65560 ACQ65558:ACQ65560 D65569:D65571 IY65569:IY65571 SU65569:SU65571 ACQ65569:ACQ65571 D65580:D65582 IY65580:IY65582 SU65580:SU65582 ACQ65580:ACQ65582 D65591:D65593 IY65591:IY65593 SU65591:SU65593 ACQ65591:ACQ65593 D131094:D131096 IY131094:IY131096 SU131094:SU131096 ACQ131094:ACQ131096 D131105:D131107 IY131105:IY131107 SU131105:SU131107 ACQ131105:ACQ131107 D131116:D131118 IY131116:IY131118 SU131116:SU131118 ACQ131116:ACQ131118 D131127:D131129 IY131127:IY131129 SU131127:SU131129 ACQ131127:ACQ131129 D196630:D196632 IY196630:IY196632 SU196630:SU196632 ACQ196630:ACQ196632 D196641:D196643 IY196641:IY196643 SU196641:SU196643 ACQ196641:ACQ196643 D196652:D196654 IY196652:IY196654 SU196652:SU196654 ACQ196652:ACQ196654 D196663:D196665 IY196663:IY196665 SU196663:SU196665 ACQ196663:ACQ196665 D262166:D262168 IY262166:IY262168 SU262166:SU262168 ACQ262166:ACQ262168 D262177:D262179 IY262177:IY262179 SU262177:SU262179 ACQ262177:ACQ262179 D262188:D262190 IY262188:IY262190 SU262188:SU262190 ACQ262188:ACQ262190 D262199:D262201 IY262199:IY262201 SU262199:SU262201 ACQ262199:ACQ262201 D327702:D327704 IY327702:IY327704 SU327702:SU327704 ACQ327702:ACQ327704 D327713:D327715 IY327713:IY327715 SU327713:SU327715 ACQ327713:ACQ327715 D327724:D327726 IY327724:IY327726 SU327724:SU327726 ACQ327724:ACQ327726 D327735:D327737 IY327735:IY327737 SU327735:SU327737 ACQ327735:ACQ327737 D393238:D393240 IY393238:IY393240 SU393238:SU393240 ACQ393238:ACQ393240 D393249:D393251 IY393249:IY393251 SU393249:SU393251 ACQ393249:ACQ393251 D393260:D393262 IY393260:IY393262 SU393260:SU393262 ACQ393260:ACQ393262 D393271:D393273 IY393271:IY393273 SU393271:SU393273 ACQ393271:ACQ393273 D458774:D458776 IY458774:IY458776 SU458774:SU458776 ACQ458774:ACQ458776 D458785:D458787 IY458785:IY458787 SU458785:SU458787 ACQ458785:ACQ458787 D458796:D458798 IY458796:IY458798 SU458796:SU458798 ACQ458796:ACQ458798 D458807:D458809 IY458807:IY458809 SU458807:SU458809 ACQ458807:ACQ458809 D524310:D524312 IY524310:IY524312 SU524310:SU524312 ACQ524310:ACQ524312 D524321:D524323 IY524321:IY524323 SU524321:SU524323 ACQ524321:ACQ524323 D524332:D524334 IY524332:IY524334 SU524332:SU524334 ACQ524332:ACQ524334 D524343:D524345 IY524343:IY524345 SU524343:SU524345 ACQ524343:ACQ524345 D589846:D589848 IY589846:IY589848 SU589846:SU589848 ACQ589846:ACQ589848 D589857:D589859 IY589857:IY589859 SU589857:SU589859 ACQ589857:ACQ589859 D589868:D589870 IY589868:IY589870 SU589868:SU589870 ACQ589868:ACQ589870 D589879:D589881 IY589879:IY589881 SU589879:SU589881 ACQ589879:ACQ589881 D655382:D655384 IY655382:IY655384 SU655382:SU655384 ACQ655382:ACQ655384 D655393:D655395 IY655393:IY655395 SU655393:SU655395 ACQ655393:ACQ655395 D655404:D655406 IY655404:IY655406 SU655404:SU655406 ACQ655404:ACQ655406 D655415:D655417 IY655415:IY655417 SU655415:SU655417 ACQ655415:ACQ655417 D720918:D720920 IY720918:IY720920 SU720918:SU720920 ACQ720918:ACQ720920 D720929:D720931 IY720929:IY720931 SU720929:SU720931 ACQ720929:ACQ720931 D720940:D720942 IY720940:IY720942 SU720940:SU720942 ACQ720940:ACQ720942 D720951:D720953 IY720951:IY720953 SU720951:SU720953 ACQ720951:ACQ720953 D786454:D786456 IY786454:IY786456 SU786454:SU786456 ACQ786454:ACQ786456 D786465:D786467 IY786465:IY786467 SU786465:SU786467 ACQ786465:ACQ786467 D786476:D786478 IY786476:IY786478 SU786476:SU786478 ACQ786476:ACQ786478 D786487:D786489 IY786487:IY786489 SU786487:SU786489 ACQ786487:ACQ786489 D851990:D851992 IY851990:IY851992 SU851990:SU851992 ACQ851990:ACQ851992 D852001:D852003 IY852001:IY852003 SU852001:SU852003 ACQ852001:ACQ852003 D852012:D852014 IY852012:IY852014 SU852012:SU852014 ACQ852012:ACQ852014 D852023:D852025 IY852023:IY852025 SU852023:SU852025 ACQ852023:ACQ852025 D917526:D917528 IY917526:IY917528 SU917526:SU917528 ACQ917526:ACQ917528 D917537:D917539 IY917537:IY917539 SU917537:SU917539 ACQ917537:ACQ917539 D917548:D917550 IY917548:IY917550 SU917548:SU917550 ACQ917548:ACQ917550 D917559:D917561 IY917559:IY917561 SU917559:SU917561 ACQ917559:ACQ917561 D983062:D983064 IY983062:IY983064 SU983062:SU983064 ACQ983062:ACQ983064 D983073:D983075 IY983073:IY983075 SU983073:SU983075 ACQ983073:ACQ983075 D983084:D983086 IY983084:IY983086 SU983084:SU983086 ACQ983084:ACQ983086 D983095:D983097 IY983095:IY983097 SU983095:SU983097 ACQ983095:ACQ983097" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50:D60 IY50:IY60 SU50:SU60 ACQ50:ACQ60 D65558:D65560 IY65558:IY65560 SU65558:SU65560 ACQ65558:ACQ65560 D65569:D65571 IY65569:IY65571 SU65569:SU65571 ACQ65569:ACQ65571 D65580:D65582 IY65580:IY65582 SU65580:SU65582 ACQ65580:ACQ65582 D65591:D65593 IY65591:IY65593 SU65591:SU65593 ACQ65591:ACQ65593 D131094:D131096 IY131094:IY131096 SU131094:SU131096 ACQ131094:ACQ131096 D131105:D131107 IY131105:IY131107 SU131105:SU131107 ACQ131105:ACQ131107 D131116:D131118 IY131116:IY131118 SU131116:SU131118 ACQ131116:ACQ131118 D131127:D131129 IY131127:IY131129 SU131127:SU131129 ACQ131127:ACQ131129 D196630:D196632 IY196630:IY196632 SU196630:SU196632 ACQ196630:ACQ196632 D196641:D196643 IY196641:IY196643 SU196641:SU196643 ACQ196641:ACQ196643 D196652:D196654 IY196652:IY196654 SU196652:SU196654 ACQ196652:ACQ196654 D196663:D196665 IY196663:IY196665 SU196663:SU196665 ACQ196663:ACQ196665 D262166:D262168 IY262166:IY262168 SU262166:SU262168 ACQ262166:ACQ262168 D262177:D262179 IY262177:IY262179 SU262177:SU262179 ACQ262177:ACQ262179 D262188:D262190 IY262188:IY262190 SU262188:SU262190 ACQ262188:ACQ262190 D262199:D262201 IY262199:IY262201 SU262199:SU262201 ACQ262199:ACQ262201 D327702:D327704 IY327702:IY327704 SU327702:SU327704 ACQ327702:ACQ327704 D327713:D327715 IY327713:IY327715 SU327713:SU327715 ACQ327713:ACQ327715 D327724:D327726 IY327724:IY327726 SU327724:SU327726 ACQ327724:ACQ327726 D327735:D327737 IY327735:IY327737 SU327735:SU327737 ACQ327735:ACQ327737 D393238:D393240 IY393238:IY393240 SU393238:SU393240 ACQ393238:ACQ393240 D393249:D393251 IY393249:IY393251 SU393249:SU393251 ACQ393249:ACQ393251 D393260:D393262 IY393260:IY393262 SU393260:SU393262 ACQ393260:ACQ393262 D393271:D393273 IY393271:IY393273 SU393271:SU393273 ACQ393271:ACQ393273 D458774:D458776 IY458774:IY458776 SU458774:SU458776 ACQ458774:ACQ458776 D458785:D458787 IY458785:IY458787 SU458785:SU458787 ACQ458785:ACQ458787 D458796:D458798 IY458796:IY458798 SU458796:SU458798 ACQ458796:ACQ458798 D458807:D458809 IY458807:IY458809 SU458807:SU458809 ACQ458807:ACQ458809 D524310:D524312 IY524310:IY524312 SU524310:SU524312 ACQ524310:ACQ524312 D524321:D524323 IY524321:IY524323 SU524321:SU524323 ACQ524321:ACQ524323 D524332:D524334 IY524332:IY524334 SU524332:SU524334 ACQ524332:ACQ524334 D524343:D524345 IY524343:IY524345 SU524343:SU524345 ACQ524343:ACQ524345 D589846:D589848 IY589846:IY589848 SU589846:SU589848 ACQ589846:ACQ589848 D589857:D589859 IY589857:IY589859 SU589857:SU589859 ACQ589857:ACQ589859 D589868:D589870 IY589868:IY589870 SU589868:SU589870 ACQ589868:ACQ589870 D589879:D589881 IY589879:IY589881 SU589879:SU589881 ACQ589879:ACQ589881 D655382:D655384 IY655382:IY655384 SU655382:SU655384 ACQ655382:ACQ655384 D655393:D655395 IY655393:IY655395 SU655393:SU655395 ACQ655393:ACQ655395 D655404:D655406 IY655404:IY655406 SU655404:SU655406 ACQ655404:ACQ655406 D655415:D655417 IY655415:IY655417 SU655415:SU655417 ACQ655415:ACQ655417 D720918:D720920 IY720918:IY720920 SU720918:SU720920 ACQ720918:ACQ720920 D720929:D720931 IY720929:IY720931 SU720929:SU720931 ACQ720929:ACQ720931 D720940:D720942 IY720940:IY720942 SU720940:SU720942 ACQ720940:ACQ720942 D720951:D720953 IY720951:IY720953 SU720951:SU720953 ACQ720951:ACQ720953 D786454:D786456 IY786454:IY786456 SU786454:SU786456 ACQ786454:ACQ786456 D786465:D786467 IY786465:IY786467 SU786465:SU786467 ACQ786465:ACQ786467 D786476:D786478 IY786476:IY786478 SU786476:SU786478 ACQ786476:ACQ786478 D786487:D786489 IY786487:IY786489 SU786487:SU786489 ACQ786487:ACQ786489 D851990:D851992 IY851990:IY851992 SU851990:SU851992 ACQ851990:ACQ851992 D852001:D852003 IY852001:IY852003 SU852001:SU852003 ACQ852001:ACQ852003 D852012:D852014 IY852012:IY852014 SU852012:SU852014 ACQ852012:ACQ852014 D852023:D852025 IY852023:IY852025 SU852023:SU852025 ACQ852023:ACQ852025 D917526:D917528 IY917526:IY917528 SU917526:SU917528 ACQ917526:ACQ917528 D917537:D917539 IY917537:IY917539 SU917537:SU917539 ACQ917537:ACQ917539 D917548:D917550 IY917548:IY917550 SU917548:SU917550 ACQ917548:ACQ917550 D917559:D917561 IY917559:IY917561 SU917559:SU917561 ACQ917559:ACQ917561 D983062:D983064 IY983062:IY983064 SU983062:SU983064 ACQ983062:ACQ983064 D983073:D983075 IY983073:IY983075 SU983073:SU983075 ACQ983073:ACQ983075 D983084:D983086 IY983084:IY983086 SU983084:SU983086 ACQ983084:ACQ983086 D983095:D983097 IY983095:IY983097 SU983095:SU983097 ACQ983095:ACQ983097">
       <formula1>$D$15:$D$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E60 IZ50:IZ60 SV50:SV60 ACR50:ACR60 E65558:E65560 IZ65558:IZ65560 SV65558:SV65560 ACR65558:ACR65560 E65569:E65571 IZ65569:IZ65571 SV65569:SV65571 ACR65569:ACR65571 E65580:E65582 IZ65580:IZ65582 SV65580:SV65582 ACR65580:ACR65582 E65591:E65593 IZ65591:IZ65593 SV65591:SV65593 ACR65591:ACR65593 E131094:E131096 IZ131094:IZ131096 SV131094:SV131096 ACR131094:ACR131096 E131105:E131107 IZ131105:IZ131107 SV131105:SV131107 ACR131105:ACR131107 E131116:E131118 IZ131116:IZ131118 SV131116:SV131118 ACR131116:ACR131118 E131127:E131129 IZ131127:IZ131129 SV131127:SV131129 ACR131127:ACR131129 E196630:E196632 IZ196630:IZ196632 SV196630:SV196632 ACR196630:ACR196632 E196641:E196643 IZ196641:IZ196643 SV196641:SV196643 ACR196641:ACR196643 E196652:E196654 IZ196652:IZ196654 SV196652:SV196654 ACR196652:ACR196654 E196663:E196665 IZ196663:IZ196665 SV196663:SV196665 ACR196663:ACR196665 E262166:E262168 IZ262166:IZ262168 SV262166:SV262168 ACR262166:ACR262168 E262177:E262179 IZ262177:IZ262179 SV262177:SV262179 ACR262177:ACR262179 E262188:E262190 IZ262188:IZ262190 SV262188:SV262190 ACR262188:ACR262190 E262199:E262201 IZ262199:IZ262201 SV262199:SV262201 ACR262199:ACR262201 E327702:E327704 IZ327702:IZ327704 SV327702:SV327704 ACR327702:ACR327704 E327713:E327715 IZ327713:IZ327715 SV327713:SV327715 ACR327713:ACR327715 E327724:E327726 IZ327724:IZ327726 SV327724:SV327726 ACR327724:ACR327726 E327735:E327737 IZ327735:IZ327737 SV327735:SV327737 ACR327735:ACR327737 E393238:E393240 IZ393238:IZ393240 SV393238:SV393240 ACR393238:ACR393240 E393249:E393251 IZ393249:IZ393251 SV393249:SV393251 ACR393249:ACR393251 E393260:E393262 IZ393260:IZ393262 SV393260:SV393262 ACR393260:ACR393262 E393271:E393273 IZ393271:IZ393273 SV393271:SV393273 ACR393271:ACR393273 E458774:E458776 IZ458774:IZ458776 SV458774:SV458776 ACR458774:ACR458776 E458785:E458787 IZ458785:IZ458787 SV458785:SV458787 ACR458785:ACR458787 E458796:E458798 IZ458796:IZ458798 SV458796:SV458798 ACR458796:ACR458798 E458807:E458809 IZ458807:IZ458809 SV458807:SV458809 ACR458807:ACR458809 E524310:E524312 IZ524310:IZ524312 SV524310:SV524312 ACR524310:ACR524312 E524321:E524323 IZ524321:IZ524323 SV524321:SV524323 ACR524321:ACR524323 E524332:E524334 IZ524332:IZ524334 SV524332:SV524334 ACR524332:ACR524334 E524343:E524345 IZ524343:IZ524345 SV524343:SV524345 ACR524343:ACR524345 E589846:E589848 IZ589846:IZ589848 SV589846:SV589848 ACR589846:ACR589848 E589857:E589859 IZ589857:IZ589859 SV589857:SV589859 ACR589857:ACR589859 E589868:E589870 IZ589868:IZ589870 SV589868:SV589870 ACR589868:ACR589870 E589879:E589881 IZ589879:IZ589881 SV589879:SV589881 ACR589879:ACR589881 E655382:E655384 IZ655382:IZ655384 SV655382:SV655384 ACR655382:ACR655384 E655393:E655395 IZ655393:IZ655395 SV655393:SV655395 ACR655393:ACR655395 E655404:E655406 IZ655404:IZ655406 SV655404:SV655406 ACR655404:ACR655406 E655415:E655417 IZ655415:IZ655417 SV655415:SV655417 ACR655415:ACR655417 E720918:E720920 IZ720918:IZ720920 SV720918:SV720920 ACR720918:ACR720920 E720929:E720931 IZ720929:IZ720931 SV720929:SV720931 ACR720929:ACR720931 E720940:E720942 IZ720940:IZ720942 SV720940:SV720942 ACR720940:ACR720942 E720951:E720953 IZ720951:IZ720953 SV720951:SV720953 ACR720951:ACR720953 E786454:E786456 IZ786454:IZ786456 SV786454:SV786456 ACR786454:ACR786456 E786465:E786467 IZ786465:IZ786467 SV786465:SV786467 ACR786465:ACR786467 E786476:E786478 IZ786476:IZ786478 SV786476:SV786478 ACR786476:ACR786478 E786487:E786489 IZ786487:IZ786489 SV786487:SV786489 ACR786487:ACR786489 E851990:E851992 IZ851990:IZ851992 SV851990:SV851992 ACR851990:ACR851992 E852001:E852003 IZ852001:IZ852003 SV852001:SV852003 ACR852001:ACR852003 E852012:E852014 IZ852012:IZ852014 SV852012:SV852014 ACR852012:ACR852014 E852023:E852025 IZ852023:IZ852025 SV852023:SV852025 ACR852023:ACR852025 E917526:E917528 IZ917526:IZ917528 SV917526:SV917528 ACR917526:ACR917528 E917537:E917539 IZ917537:IZ917539 SV917537:SV917539 ACR917537:ACR917539 E917548:E917550 IZ917548:IZ917550 SV917548:SV917550 ACR917548:ACR917550 E917559:E917561 IZ917559:IZ917561 SV917559:SV917561 ACR917559:ACR917561 E983062:E983064 IZ983062:IZ983064 SV983062:SV983064 ACR983062:ACR983064 E983073:E983075 IZ983073:IZ983075 SV983073:SV983075 ACR983073:ACR983075 E983084:E983086 IZ983084:IZ983086 SV983084:SV983086 ACR983084:ACR983086 E983095:E983097 IZ983095:IZ983097 SV983095:SV983097 ACR983095:ACR983097" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E60 IZ50:IZ60 SV50:SV60 ACR50:ACR60 E65558:E65560 IZ65558:IZ65560 SV65558:SV65560 ACR65558:ACR65560 E65569:E65571 IZ65569:IZ65571 SV65569:SV65571 ACR65569:ACR65571 E65580:E65582 IZ65580:IZ65582 SV65580:SV65582 ACR65580:ACR65582 E65591:E65593 IZ65591:IZ65593 SV65591:SV65593 ACR65591:ACR65593 E131094:E131096 IZ131094:IZ131096 SV131094:SV131096 ACR131094:ACR131096 E131105:E131107 IZ131105:IZ131107 SV131105:SV131107 ACR131105:ACR131107 E131116:E131118 IZ131116:IZ131118 SV131116:SV131118 ACR131116:ACR131118 E131127:E131129 IZ131127:IZ131129 SV131127:SV131129 ACR131127:ACR131129 E196630:E196632 IZ196630:IZ196632 SV196630:SV196632 ACR196630:ACR196632 E196641:E196643 IZ196641:IZ196643 SV196641:SV196643 ACR196641:ACR196643 E196652:E196654 IZ196652:IZ196654 SV196652:SV196654 ACR196652:ACR196654 E196663:E196665 IZ196663:IZ196665 SV196663:SV196665 ACR196663:ACR196665 E262166:E262168 IZ262166:IZ262168 SV262166:SV262168 ACR262166:ACR262168 E262177:E262179 IZ262177:IZ262179 SV262177:SV262179 ACR262177:ACR262179 E262188:E262190 IZ262188:IZ262190 SV262188:SV262190 ACR262188:ACR262190 E262199:E262201 IZ262199:IZ262201 SV262199:SV262201 ACR262199:ACR262201 E327702:E327704 IZ327702:IZ327704 SV327702:SV327704 ACR327702:ACR327704 E327713:E327715 IZ327713:IZ327715 SV327713:SV327715 ACR327713:ACR327715 E327724:E327726 IZ327724:IZ327726 SV327724:SV327726 ACR327724:ACR327726 E327735:E327737 IZ327735:IZ327737 SV327735:SV327737 ACR327735:ACR327737 E393238:E393240 IZ393238:IZ393240 SV393238:SV393240 ACR393238:ACR393240 E393249:E393251 IZ393249:IZ393251 SV393249:SV393251 ACR393249:ACR393251 E393260:E393262 IZ393260:IZ393262 SV393260:SV393262 ACR393260:ACR393262 E393271:E393273 IZ393271:IZ393273 SV393271:SV393273 ACR393271:ACR393273 E458774:E458776 IZ458774:IZ458776 SV458774:SV458776 ACR458774:ACR458776 E458785:E458787 IZ458785:IZ458787 SV458785:SV458787 ACR458785:ACR458787 E458796:E458798 IZ458796:IZ458798 SV458796:SV458798 ACR458796:ACR458798 E458807:E458809 IZ458807:IZ458809 SV458807:SV458809 ACR458807:ACR458809 E524310:E524312 IZ524310:IZ524312 SV524310:SV524312 ACR524310:ACR524312 E524321:E524323 IZ524321:IZ524323 SV524321:SV524323 ACR524321:ACR524323 E524332:E524334 IZ524332:IZ524334 SV524332:SV524334 ACR524332:ACR524334 E524343:E524345 IZ524343:IZ524345 SV524343:SV524345 ACR524343:ACR524345 E589846:E589848 IZ589846:IZ589848 SV589846:SV589848 ACR589846:ACR589848 E589857:E589859 IZ589857:IZ589859 SV589857:SV589859 ACR589857:ACR589859 E589868:E589870 IZ589868:IZ589870 SV589868:SV589870 ACR589868:ACR589870 E589879:E589881 IZ589879:IZ589881 SV589879:SV589881 ACR589879:ACR589881 E655382:E655384 IZ655382:IZ655384 SV655382:SV655384 ACR655382:ACR655384 E655393:E655395 IZ655393:IZ655395 SV655393:SV655395 ACR655393:ACR655395 E655404:E655406 IZ655404:IZ655406 SV655404:SV655406 ACR655404:ACR655406 E655415:E655417 IZ655415:IZ655417 SV655415:SV655417 ACR655415:ACR655417 E720918:E720920 IZ720918:IZ720920 SV720918:SV720920 ACR720918:ACR720920 E720929:E720931 IZ720929:IZ720931 SV720929:SV720931 ACR720929:ACR720931 E720940:E720942 IZ720940:IZ720942 SV720940:SV720942 ACR720940:ACR720942 E720951:E720953 IZ720951:IZ720953 SV720951:SV720953 ACR720951:ACR720953 E786454:E786456 IZ786454:IZ786456 SV786454:SV786456 ACR786454:ACR786456 E786465:E786467 IZ786465:IZ786467 SV786465:SV786467 ACR786465:ACR786467 E786476:E786478 IZ786476:IZ786478 SV786476:SV786478 ACR786476:ACR786478 E786487:E786489 IZ786487:IZ786489 SV786487:SV786489 ACR786487:ACR786489 E851990:E851992 IZ851990:IZ851992 SV851990:SV851992 ACR851990:ACR851992 E852001:E852003 IZ852001:IZ852003 SV852001:SV852003 ACR852001:ACR852003 E852012:E852014 IZ852012:IZ852014 SV852012:SV852014 ACR852012:ACR852014 E852023:E852025 IZ852023:IZ852025 SV852023:SV852025 ACR852023:ACR852025 E917526:E917528 IZ917526:IZ917528 SV917526:SV917528 ACR917526:ACR917528 E917537:E917539 IZ917537:IZ917539 SV917537:SV917539 ACR917537:ACR917539 E917548:E917550 IZ917548:IZ917550 SV917548:SV917550 ACR917548:ACR917550 E917559:E917561 IZ917559:IZ917561 SV917559:SV917561 ACR917559:ACR917561 E983062:E983064 IZ983062:IZ983064 SV983062:SV983064 ACR983062:ACR983064 E983073:E983075 IZ983073:IZ983075 SV983073:SV983075 ACR983073:ACR983075 E983084:E983086 IZ983084:IZ983086 SV983084:SV983086 ACR983084:ACR983086 E983095:E983097 IZ983095:IZ983097 SV983095:SV983097 ACR983095:ACR983097">
       <formula1>$D$19:$D$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G60 JB50:JB60 SX50:SX60 ACT50:ACT60 G65558:G65560 JB65558:JB65560 SX65558:SX65560 ACT65558:ACT65560 G65569:G65571 JB65569:JB65571 SX65569:SX65571 ACT65569:ACT65571 G65580:G65582 JB65580:JB65582 SX65580:SX65582 ACT65580:ACT65582 G65591:G65593 JB65591:JB65593 SX65591:SX65593 ACT65591:ACT65593 G131094:G131096 JB131094:JB131096 SX131094:SX131096 ACT131094:ACT131096 G131105:G131107 JB131105:JB131107 SX131105:SX131107 ACT131105:ACT131107 G131116:G131118 JB131116:JB131118 SX131116:SX131118 ACT131116:ACT131118 G131127:G131129 JB131127:JB131129 SX131127:SX131129 ACT131127:ACT131129 G196630:G196632 JB196630:JB196632 SX196630:SX196632 ACT196630:ACT196632 G196641:G196643 JB196641:JB196643 SX196641:SX196643 ACT196641:ACT196643 G196652:G196654 JB196652:JB196654 SX196652:SX196654 ACT196652:ACT196654 G196663:G196665 JB196663:JB196665 SX196663:SX196665 ACT196663:ACT196665 G262166:G262168 JB262166:JB262168 SX262166:SX262168 ACT262166:ACT262168 G262177:G262179 JB262177:JB262179 SX262177:SX262179 ACT262177:ACT262179 G262188:G262190 JB262188:JB262190 SX262188:SX262190 ACT262188:ACT262190 G262199:G262201 JB262199:JB262201 SX262199:SX262201 ACT262199:ACT262201 G327702:G327704 JB327702:JB327704 SX327702:SX327704 ACT327702:ACT327704 G327713:G327715 JB327713:JB327715 SX327713:SX327715 ACT327713:ACT327715 G327724:G327726 JB327724:JB327726 SX327724:SX327726 ACT327724:ACT327726 G327735:G327737 JB327735:JB327737 SX327735:SX327737 ACT327735:ACT327737 G393238:G393240 JB393238:JB393240 SX393238:SX393240 ACT393238:ACT393240 G393249:G393251 JB393249:JB393251 SX393249:SX393251 ACT393249:ACT393251 G393260:G393262 JB393260:JB393262 SX393260:SX393262 ACT393260:ACT393262 G393271:G393273 JB393271:JB393273 SX393271:SX393273 ACT393271:ACT393273 G458774:G458776 JB458774:JB458776 SX458774:SX458776 ACT458774:ACT458776 G458785:G458787 JB458785:JB458787 SX458785:SX458787 ACT458785:ACT458787 G458796:G458798 JB458796:JB458798 SX458796:SX458798 ACT458796:ACT458798 G458807:G458809 JB458807:JB458809 SX458807:SX458809 ACT458807:ACT458809 G524310:G524312 JB524310:JB524312 SX524310:SX524312 ACT524310:ACT524312 G524321:G524323 JB524321:JB524323 SX524321:SX524323 ACT524321:ACT524323 G524332:G524334 JB524332:JB524334 SX524332:SX524334 ACT524332:ACT524334 G524343:G524345 JB524343:JB524345 SX524343:SX524345 ACT524343:ACT524345 G589846:G589848 JB589846:JB589848 SX589846:SX589848 ACT589846:ACT589848 G589857:G589859 JB589857:JB589859 SX589857:SX589859 ACT589857:ACT589859 G589868:G589870 JB589868:JB589870 SX589868:SX589870 ACT589868:ACT589870 G589879:G589881 JB589879:JB589881 SX589879:SX589881 ACT589879:ACT589881 G655382:G655384 JB655382:JB655384 SX655382:SX655384 ACT655382:ACT655384 G655393:G655395 JB655393:JB655395 SX655393:SX655395 ACT655393:ACT655395 G655404:G655406 JB655404:JB655406 SX655404:SX655406 ACT655404:ACT655406 G655415:G655417 JB655415:JB655417 SX655415:SX655417 ACT655415:ACT655417 G720918:G720920 JB720918:JB720920 SX720918:SX720920 ACT720918:ACT720920 G720929:G720931 JB720929:JB720931 SX720929:SX720931 ACT720929:ACT720931 G720940:G720942 JB720940:JB720942 SX720940:SX720942 ACT720940:ACT720942 G720951:G720953 JB720951:JB720953 SX720951:SX720953 ACT720951:ACT720953 G786454:G786456 JB786454:JB786456 SX786454:SX786456 ACT786454:ACT786456 G786465:G786467 JB786465:JB786467 SX786465:SX786467 ACT786465:ACT786467 G786476:G786478 JB786476:JB786478 SX786476:SX786478 ACT786476:ACT786478 G786487:G786489 JB786487:JB786489 SX786487:SX786489 ACT786487:ACT786489 G851990:G851992 JB851990:JB851992 SX851990:SX851992 ACT851990:ACT851992 G852001:G852003 JB852001:JB852003 SX852001:SX852003 ACT852001:ACT852003 G852012:G852014 JB852012:JB852014 SX852012:SX852014 ACT852012:ACT852014 G852023:G852025 JB852023:JB852025 SX852023:SX852025 ACT852023:ACT852025 G917526:G917528 JB917526:JB917528 SX917526:SX917528 ACT917526:ACT917528 G917537:G917539 JB917537:JB917539 SX917537:SX917539 ACT917537:ACT917539 G917548:G917550 JB917548:JB917550 SX917548:SX917550 ACT917548:ACT917550 G917559:G917561 JB917559:JB917561 SX917559:SX917561 ACT917559:ACT917561 G983062:G983064 JB983062:JB983064 SX983062:SX983064 ACT983062:ACT983064 G983073:G983075 JB983073:JB983075 SX983073:SX983075 ACT983073:ACT983075 G983084:G983086 JB983084:JB983086 SX983084:SX983086 ACT983084:ACT983086 G983095:G983097 JB983095:JB983097 SX983095:SX983097 ACT983095:ACT983097" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G60 JB50:JB60 SX50:SX60 ACT50:ACT60 G65558:G65560 JB65558:JB65560 SX65558:SX65560 ACT65558:ACT65560 G65569:G65571 JB65569:JB65571 SX65569:SX65571 ACT65569:ACT65571 G65580:G65582 JB65580:JB65582 SX65580:SX65582 ACT65580:ACT65582 G65591:G65593 JB65591:JB65593 SX65591:SX65593 ACT65591:ACT65593 G131094:G131096 JB131094:JB131096 SX131094:SX131096 ACT131094:ACT131096 G131105:G131107 JB131105:JB131107 SX131105:SX131107 ACT131105:ACT131107 G131116:G131118 JB131116:JB131118 SX131116:SX131118 ACT131116:ACT131118 G131127:G131129 JB131127:JB131129 SX131127:SX131129 ACT131127:ACT131129 G196630:G196632 JB196630:JB196632 SX196630:SX196632 ACT196630:ACT196632 G196641:G196643 JB196641:JB196643 SX196641:SX196643 ACT196641:ACT196643 G196652:G196654 JB196652:JB196654 SX196652:SX196654 ACT196652:ACT196654 G196663:G196665 JB196663:JB196665 SX196663:SX196665 ACT196663:ACT196665 G262166:G262168 JB262166:JB262168 SX262166:SX262168 ACT262166:ACT262168 G262177:G262179 JB262177:JB262179 SX262177:SX262179 ACT262177:ACT262179 G262188:G262190 JB262188:JB262190 SX262188:SX262190 ACT262188:ACT262190 G262199:G262201 JB262199:JB262201 SX262199:SX262201 ACT262199:ACT262201 G327702:G327704 JB327702:JB327704 SX327702:SX327704 ACT327702:ACT327704 G327713:G327715 JB327713:JB327715 SX327713:SX327715 ACT327713:ACT327715 G327724:G327726 JB327724:JB327726 SX327724:SX327726 ACT327724:ACT327726 G327735:G327737 JB327735:JB327737 SX327735:SX327737 ACT327735:ACT327737 G393238:G393240 JB393238:JB393240 SX393238:SX393240 ACT393238:ACT393240 G393249:G393251 JB393249:JB393251 SX393249:SX393251 ACT393249:ACT393251 G393260:G393262 JB393260:JB393262 SX393260:SX393262 ACT393260:ACT393262 G393271:G393273 JB393271:JB393273 SX393271:SX393273 ACT393271:ACT393273 G458774:G458776 JB458774:JB458776 SX458774:SX458776 ACT458774:ACT458776 G458785:G458787 JB458785:JB458787 SX458785:SX458787 ACT458785:ACT458787 G458796:G458798 JB458796:JB458798 SX458796:SX458798 ACT458796:ACT458798 G458807:G458809 JB458807:JB458809 SX458807:SX458809 ACT458807:ACT458809 G524310:G524312 JB524310:JB524312 SX524310:SX524312 ACT524310:ACT524312 G524321:G524323 JB524321:JB524323 SX524321:SX524323 ACT524321:ACT524323 G524332:G524334 JB524332:JB524334 SX524332:SX524334 ACT524332:ACT524334 G524343:G524345 JB524343:JB524345 SX524343:SX524345 ACT524343:ACT524345 G589846:G589848 JB589846:JB589848 SX589846:SX589848 ACT589846:ACT589848 G589857:G589859 JB589857:JB589859 SX589857:SX589859 ACT589857:ACT589859 G589868:G589870 JB589868:JB589870 SX589868:SX589870 ACT589868:ACT589870 G589879:G589881 JB589879:JB589881 SX589879:SX589881 ACT589879:ACT589881 G655382:G655384 JB655382:JB655384 SX655382:SX655384 ACT655382:ACT655384 G655393:G655395 JB655393:JB655395 SX655393:SX655395 ACT655393:ACT655395 G655404:G655406 JB655404:JB655406 SX655404:SX655406 ACT655404:ACT655406 G655415:G655417 JB655415:JB655417 SX655415:SX655417 ACT655415:ACT655417 G720918:G720920 JB720918:JB720920 SX720918:SX720920 ACT720918:ACT720920 G720929:G720931 JB720929:JB720931 SX720929:SX720931 ACT720929:ACT720931 G720940:G720942 JB720940:JB720942 SX720940:SX720942 ACT720940:ACT720942 G720951:G720953 JB720951:JB720953 SX720951:SX720953 ACT720951:ACT720953 G786454:G786456 JB786454:JB786456 SX786454:SX786456 ACT786454:ACT786456 G786465:G786467 JB786465:JB786467 SX786465:SX786467 ACT786465:ACT786467 G786476:G786478 JB786476:JB786478 SX786476:SX786478 ACT786476:ACT786478 G786487:G786489 JB786487:JB786489 SX786487:SX786489 ACT786487:ACT786489 G851990:G851992 JB851990:JB851992 SX851990:SX851992 ACT851990:ACT851992 G852001:G852003 JB852001:JB852003 SX852001:SX852003 ACT852001:ACT852003 G852012:G852014 JB852012:JB852014 SX852012:SX852014 ACT852012:ACT852014 G852023:G852025 JB852023:JB852025 SX852023:SX852025 ACT852023:ACT852025 G917526:G917528 JB917526:JB917528 SX917526:SX917528 ACT917526:ACT917528 G917537:G917539 JB917537:JB917539 SX917537:SX917539 ACT917537:ACT917539 G917548:G917550 JB917548:JB917550 SX917548:SX917550 ACT917548:ACT917550 G917559:G917561 JB917559:JB917561 SX917559:SX917561 ACT917559:ACT917561 G983062:G983064 JB983062:JB983064 SX983062:SX983064 ACT983062:ACT983064 G983073:G983075 JB983073:JB983075 SX983073:SX983075 ACT983073:ACT983075 G983084:G983086 JB983084:JB983086 SX983084:SX983086 ACT983084:ACT983086 G983095:G983097 JB983095:JB983097 SX983095:SX983097 ACT983095:ACT983097">
       <formula1>$D$23:$D$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65554:I65554 JC65554:JD65554 SY65554:SZ65554 ACU65554:ACV65554 H65565:I65565 JC65565:JD65565 SY65565:SZ65565 ACU65565:ACV65565 H65576:I65576 JC65576:JD65576 SY65576:SZ65576 ACU65576:ACV65576 H65587:I65587 JC65587:JD65587 SY65587:SZ65587 ACU65587:ACV65587 H131090:I131090 JC131090:JD131090 SY131090:SZ131090 ACU131090:ACV131090 H131101:I131101 JC131101:JD131101 SY131101:SZ131101 ACU131101:ACV131101 H131112:I131112 JC131112:JD131112 SY131112:SZ131112 ACU131112:ACV131112 H131123:I131123 JC131123:JD131123 SY131123:SZ131123 ACU131123:ACV131123 H196626:I196626 JC196626:JD196626 SY196626:SZ196626 ACU196626:ACV196626 H196637:I196637 JC196637:JD196637 SY196637:SZ196637 ACU196637:ACV196637 H196648:I196648 JC196648:JD196648 SY196648:SZ196648 ACU196648:ACV196648 H196659:I196659 JC196659:JD196659 SY196659:SZ196659 ACU196659:ACV196659 H262162:I262162 JC262162:JD262162 SY262162:SZ262162 ACU262162:ACV262162 H262173:I262173 JC262173:JD262173 SY262173:SZ262173 ACU262173:ACV262173 H262184:I262184 JC262184:JD262184 SY262184:SZ262184 ACU262184:ACV262184 H262195:I262195 JC262195:JD262195 SY262195:SZ262195 ACU262195:ACV262195 H327698:I327698 JC327698:JD327698 SY327698:SZ327698 ACU327698:ACV327698 H327709:I327709 JC327709:JD327709 SY327709:SZ327709 ACU327709:ACV327709 H327720:I327720 JC327720:JD327720 SY327720:SZ327720 ACU327720:ACV327720 H327731:I327731 JC327731:JD327731 SY327731:SZ327731 ACU327731:ACV327731 H393234:I393234 JC393234:JD393234 SY393234:SZ393234 ACU393234:ACV393234 H393245:I393245 JC393245:JD393245 SY393245:SZ393245 ACU393245:ACV393245 H393256:I393256 JC393256:JD393256 SY393256:SZ393256 ACU393256:ACV393256 H393267:I393267 JC393267:JD393267 SY393267:SZ393267 ACU393267:ACV393267 H458770:I458770 JC458770:JD458770 SY458770:SZ458770 ACU458770:ACV458770 H458781:I458781 JC458781:JD458781 SY458781:SZ458781 ACU458781:ACV458781 H458792:I458792 JC458792:JD458792 SY458792:SZ458792 ACU458792:ACV458792 H458803:I458803 JC458803:JD458803 SY458803:SZ458803 ACU458803:ACV458803 H524306:I524306 JC524306:JD524306 SY524306:SZ524306 ACU524306:ACV524306 H524317:I524317 JC524317:JD524317 SY524317:SZ524317 ACU524317:ACV524317 H524328:I524328 JC524328:JD524328 SY524328:SZ524328 ACU524328:ACV524328 H524339:I524339 JC524339:JD524339 SY524339:SZ524339 ACU524339:ACV524339 H589842:I589842 JC589842:JD589842 SY589842:SZ589842 ACU589842:ACV589842 H589853:I589853 JC589853:JD589853 SY589853:SZ589853 ACU589853:ACV589853 H589864:I589864 JC589864:JD589864 SY589864:SZ589864 ACU589864:ACV589864 H589875:I589875 JC589875:JD589875 SY589875:SZ589875 ACU589875:ACV589875 H655378:I655378 JC655378:JD655378 SY655378:SZ655378 ACU655378:ACV655378 H655389:I655389 JC655389:JD655389 SY655389:SZ655389 ACU655389:ACV655389 H655400:I655400 JC655400:JD655400 SY655400:SZ655400 ACU655400:ACV655400 H655411:I655411 JC655411:JD655411 SY655411:SZ655411 ACU655411:ACV655411 H720914:I720914 JC720914:JD720914 SY720914:SZ720914 ACU720914:ACV720914 H720925:I720925 JC720925:JD720925 SY720925:SZ720925 ACU720925:ACV720925 H720936:I720936 JC720936:JD720936 SY720936:SZ720936 ACU720936:ACV720936 H720947:I720947 JC720947:JD720947 SY720947:SZ720947 ACU720947:ACV720947 H786450:I786450 JC786450:JD786450 SY786450:SZ786450 ACU786450:ACV786450 H786461:I786461 JC786461:JD786461 SY786461:SZ786461 ACU786461:ACV786461 H786472:I786472 JC786472:JD786472 SY786472:SZ786472 ACU786472:ACV786472 H786483:I786483 JC786483:JD786483 SY786483:SZ786483 ACU786483:ACV786483 H851986:I851986 JC851986:JD851986 SY851986:SZ851986 ACU851986:ACV851986 H851997:I851997 JC851997:JD851997 SY851997:SZ851997 ACU851997:ACV851997 H852008:I852008 JC852008:JD852008 SY852008:SZ852008 ACU852008:ACV852008 H852019:I852019 JC852019:JD852019 SY852019:SZ852019 ACU852019:ACV852019 H917522:I917522 JC917522:JD917522 SY917522:SZ917522 ACU917522:ACV917522 H917533:I917533 JC917533:JD917533 SY917533:SZ917533 ACU917533:ACV917533 H917544:I917544 JC917544:JD917544 SY917544:SZ917544 ACU917544:ACV917544 H917555:I917555 JC917555:JD917555 SY917555:SZ917555 ACU917555:ACV917555 H983058:I983058 JC983058:JD983058 SY983058:SZ983058 ACU983058:ACV983058 H983069:I983069 JC983069:JD983069 SY983069:SZ983069 ACU983069:ACV983069 H983080:I983080 JC983080:JD983080 SY983080:SZ983080 ACU983080:ACV983080 H983091:I983091 JC983091:JD983091 SY983091:SZ983091 ACU983091:ACV983091" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65554:I65554 JC65554:JD65554 SY65554:SZ65554 ACU65554:ACV65554 H65565:I65565 JC65565:JD65565 SY65565:SZ65565 ACU65565:ACV65565 H65576:I65576 JC65576:JD65576 SY65576:SZ65576 ACU65576:ACV65576 H65587:I65587 JC65587:JD65587 SY65587:SZ65587 ACU65587:ACV65587 H131090:I131090 JC131090:JD131090 SY131090:SZ131090 ACU131090:ACV131090 H131101:I131101 JC131101:JD131101 SY131101:SZ131101 ACU131101:ACV131101 H131112:I131112 JC131112:JD131112 SY131112:SZ131112 ACU131112:ACV131112 H131123:I131123 JC131123:JD131123 SY131123:SZ131123 ACU131123:ACV131123 H196626:I196626 JC196626:JD196626 SY196626:SZ196626 ACU196626:ACV196626 H196637:I196637 JC196637:JD196637 SY196637:SZ196637 ACU196637:ACV196637 H196648:I196648 JC196648:JD196648 SY196648:SZ196648 ACU196648:ACV196648 H196659:I196659 JC196659:JD196659 SY196659:SZ196659 ACU196659:ACV196659 H262162:I262162 JC262162:JD262162 SY262162:SZ262162 ACU262162:ACV262162 H262173:I262173 JC262173:JD262173 SY262173:SZ262173 ACU262173:ACV262173 H262184:I262184 JC262184:JD262184 SY262184:SZ262184 ACU262184:ACV262184 H262195:I262195 JC262195:JD262195 SY262195:SZ262195 ACU262195:ACV262195 H327698:I327698 JC327698:JD327698 SY327698:SZ327698 ACU327698:ACV327698 H327709:I327709 JC327709:JD327709 SY327709:SZ327709 ACU327709:ACV327709 H327720:I327720 JC327720:JD327720 SY327720:SZ327720 ACU327720:ACV327720 H327731:I327731 JC327731:JD327731 SY327731:SZ327731 ACU327731:ACV327731 H393234:I393234 JC393234:JD393234 SY393234:SZ393234 ACU393234:ACV393234 H393245:I393245 JC393245:JD393245 SY393245:SZ393245 ACU393245:ACV393245 H393256:I393256 JC393256:JD393256 SY393256:SZ393256 ACU393256:ACV393256 H393267:I393267 JC393267:JD393267 SY393267:SZ393267 ACU393267:ACV393267 H458770:I458770 JC458770:JD458770 SY458770:SZ458770 ACU458770:ACV458770 H458781:I458781 JC458781:JD458781 SY458781:SZ458781 ACU458781:ACV458781 H458792:I458792 JC458792:JD458792 SY458792:SZ458792 ACU458792:ACV458792 H458803:I458803 JC458803:JD458803 SY458803:SZ458803 ACU458803:ACV458803 H524306:I524306 JC524306:JD524306 SY524306:SZ524306 ACU524306:ACV524306 H524317:I524317 JC524317:JD524317 SY524317:SZ524317 ACU524317:ACV524317 H524328:I524328 JC524328:JD524328 SY524328:SZ524328 ACU524328:ACV524328 H524339:I524339 JC524339:JD524339 SY524339:SZ524339 ACU524339:ACV524339 H589842:I589842 JC589842:JD589842 SY589842:SZ589842 ACU589842:ACV589842 H589853:I589853 JC589853:JD589853 SY589853:SZ589853 ACU589853:ACV589853 H589864:I589864 JC589864:JD589864 SY589864:SZ589864 ACU589864:ACV589864 H589875:I589875 JC589875:JD589875 SY589875:SZ589875 ACU589875:ACV589875 H655378:I655378 JC655378:JD655378 SY655378:SZ655378 ACU655378:ACV655378 H655389:I655389 JC655389:JD655389 SY655389:SZ655389 ACU655389:ACV655389 H655400:I655400 JC655400:JD655400 SY655400:SZ655400 ACU655400:ACV655400 H655411:I655411 JC655411:JD655411 SY655411:SZ655411 ACU655411:ACV655411 H720914:I720914 JC720914:JD720914 SY720914:SZ720914 ACU720914:ACV720914 H720925:I720925 JC720925:JD720925 SY720925:SZ720925 ACU720925:ACV720925 H720936:I720936 JC720936:JD720936 SY720936:SZ720936 ACU720936:ACV720936 H720947:I720947 JC720947:JD720947 SY720947:SZ720947 ACU720947:ACV720947 H786450:I786450 JC786450:JD786450 SY786450:SZ786450 ACU786450:ACV786450 H786461:I786461 JC786461:JD786461 SY786461:SZ786461 ACU786461:ACV786461 H786472:I786472 JC786472:JD786472 SY786472:SZ786472 ACU786472:ACV786472 H786483:I786483 JC786483:JD786483 SY786483:SZ786483 ACU786483:ACV786483 H851986:I851986 JC851986:JD851986 SY851986:SZ851986 ACU851986:ACV851986 H851997:I851997 JC851997:JD851997 SY851997:SZ851997 ACU851997:ACV851997 H852008:I852008 JC852008:JD852008 SY852008:SZ852008 ACU852008:ACV852008 H852019:I852019 JC852019:JD852019 SY852019:SZ852019 ACU852019:ACV852019 H917522:I917522 JC917522:JD917522 SY917522:SZ917522 ACU917522:ACV917522 H917533:I917533 JC917533:JD917533 SY917533:SZ917533 ACU917533:ACV917533 H917544:I917544 JC917544:JD917544 SY917544:SZ917544 ACU917544:ACV917544 H917555:I917555 JC917555:JD917555 SY917555:SZ917555 ACU917555:ACV917555 H983058:I983058 JC983058:JD983058 SY983058:SZ983058 ACU983058:ACV983058 H983069:I983069 JC983069:JD983069 SY983069:SZ983069 ACU983069:ACV983069 H983080:I983080 JC983080:JD983080 SY983080:SZ983080 ACU983080:ACV983080 H983091:I983091 JC983091:JD983091 SY983091:SZ983091 ACU983091:ACV983091">
       <formula1>$D$4:$D$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -10830,7 +10864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -10857,432 +10891,432 @@
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:23" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+    </row>
+    <row r="2" spans="1:23" s="87" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+    </row>
+    <row r="3" spans="1:23" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+    </row>
+    <row r="4" spans="1:23" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-    </row>
-    <row r="2" spans="1:23" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="160" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-    </row>
-    <row r="3" spans="1:23" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="161" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+    </row>
+    <row r="5" spans="1:23" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-    </row>
-    <row r="4" spans="1:23" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="162" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-    </row>
-    <row r="5" spans="1:23" s="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="163" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="149"/>
+      <c r="D7" s="149" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="149"/>
+      <c r="G7" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="D7" s="157" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="M7" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="G7" s="157" t="s">
+      <c r="N7" s="149"/>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="M7" s="157" t="s">
+      <c r="B8" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="N7" s="157"/>
-    </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="D8" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="E8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="H8" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="98" t="s">
+      <c r="I8" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="K8" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="99" t="s">
+      <c r="M8" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="N8" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="99" t="s">
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="99" t="s">
+      <c r="B9" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="88" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
+      <c r="E9" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="96">
+      <c r="H9" s="88">
         <v>2</v>
       </c>
-      <c r="I9" s="96">
+      <c r="I9" s="88">
         <v>0</v>
       </c>
-      <c r="J9" s="96">
+      <c r="J9" s="88">
         <v>0</v>
       </c>
-      <c r="K9" s="99">
+      <c r="K9" s="91">
         <f>(H9*4)+(I9*6)+(J9*8)</f>
         <v>8</v>
       </c>
-      <c r="M9" s="100" t="s">
+      <c r="M9" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="93"/>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="G10" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="101"/>
-    </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="G10" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="99">
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="91">
         <f>(H10*3)+(I10*4)+(J10*6)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="100" t="s">
+      <c r="M10" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="93"/>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="G11" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="M11" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="N10" s="101"/>
-    </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="G11" s="157" t="s">
+      <c r="N11" s="93"/>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="G12" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="M11" s="100" t="s">
+      <c r="N12" s="93"/>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="G13" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="N11" s="101"/>
-    </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="G12" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="M12" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="N12" s="101"/>
-    </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="G13" s="98" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="96">
+      <c r="H13" s="88">
         <v>1</v>
       </c>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="99">
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="91">
         <f>(H13*3)+(I13*4)+(J13*6)</f>
         <v>3</v>
       </c>
-      <c r="M13" s="100" t="s">
+      <c r="M13" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="N13" s="93"/>
+      <c r="W13" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="G14" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="W13" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="96"/>
-      <c r="B14" s="97"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="G14" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="99">
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="91">
         <f>(H14*4)+(I14*5)+(J14*7)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="N14" s="101"/>
+      <c r="M14" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="N14" s="93"/>
     </row>
     <row r="15" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="G15" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="96">
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="G15" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="88">
         <v>1</v>
       </c>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="99">
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="91">
         <f>(H15*3)+(I15*4)+(J15*6)</f>
         <v>3</v>
       </c>
-      <c r="M15" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="N15" s="101"/>
+      <c r="M15" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" s="93"/>
     </row>
     <row r="16" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
-      <c r="G16" s="158" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="102">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="G16" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="94">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
       </c>
-      <c r="M16" s="100" t="s">
+      <c r="M16" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="N16" s="93"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="M17" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="N17" s="93"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="M18" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="N16" s="101"/>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
-      <c r="M17" s="100" t="s">
+      <c r="N18" s="93"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="M19" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="N17" s="101"/>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-      <c r="M18" s="100" t="s">
+      <c r="N19" s="93"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="M20" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="N18" s="101"/>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
-      <c r="M19" s="100" t="s">
+      <c r="N20" s="93"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="M21" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="N19" s="101"/>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="96"/>
-      <c r="B20" s="97"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
-      <c r="M20" s="100" t="s">
+      <c r="N21" s="93"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="M22" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="N20" s="101"/>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M21" s="100" t="s">
+      <c r="N22" s="93"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="M23" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="N21" s="101"/>
-    </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M22" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="N22" s="101"/>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M23" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="N23" s="104">
+      <c r="N23" s="96">
         <f>SUM(N9:N22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M24" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="N24" s="102">
+      <c r="M24" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" s="94">
         <f>(N23*0.01)+0.65</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M25" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="N25" s="105">
+      <c r="M25" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="N25" s="97">
         <f>K16*N24</f>
         <v>9.1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M26" s="103" t="s">
-        <v>193</v>
-      </c>
-      <c r="N26" s="106">
+      <c r="M26" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="98">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M27" s="107" t="s">
-        <v>194</v>
-      </c>
-      <c r="N27" s="108">
+      <c r="M27" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" s="100">
         <f>N25*N26</f>
         <v>172.9</v>
       </c>
@@ -11302,10 +11336,10 @@
     <mergeCell ref="M7:N7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20">
       <formula1>"Simples,Média,Complexa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11318,7 +11352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11346,662 +11380,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
+      <c r="A1" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="165" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="E3" s="165" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
+      <c r="A3" s="157" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="E3" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="110">
+      <c r="A4" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="102">
         <f>'#Estimativa-APF#'!$N$27</f>
         <v>172.9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="166" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="164" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="158" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164" t="s">
+      <c r="G4" s="156"/>
+      <c r="H4" s="156" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="164"/>
-      <c r="N4" s="111"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="103"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="29">
         <v>0</v>
       </c>
       <c r="C5" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="158"/>
+      <c r="F5" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="156"/>
+      <c r="N5" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="164"/>
-      <c r="N5" s="41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="113">
+      <c r="B6" s="105">
         <f>B4+(B4*B5)</f>
         <v>172.9</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="114">
+        <v>52</v>
+      </c>
+      <c r="E6" s="158"/>
+      <c r="F6" s="106">
         <f>B6*G6</f>
         <v>8.6450000000000014</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="107">
         <v>0.05</v>
       </c>
-      <c r="H6" s="114">
+      <c r="H6" s="106">
         <f>B4*I6</f>
         <v>34.580000000000005</v>
       </c>
-      <c r="I6" s="115">
+      <c r="I6" s="107">
         <v>0.2</v>
       </c>
-      <c r="J6" s="114">
+      <c r="J6" s="106">
         <f>B4*K6</f>
         <v>112.38500000000001</v>
       </c>
-      <c r="K6" s="115">
+      <c r="K6" s="107">
         <v>0.65</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L6" s="106">
         <f>B4*M6</f>
         <v>17.290000000000003</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6" s="107">
         <v>0.1</v>
       </c>
-      <c r="N6" s="114"/>
+      <c r="N6" s="106"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="E7" s="116" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="114">
+      <c r="E7" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="106">
         <f>F6*G7</f>
         <v>4.7547500000000014</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="107">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H7" s="114">
+      <c r="H7" s="106">
         <f>H6*I7</f>
         <v>10.374000000000001</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="107">
         <v>0.3</v>
       </c>
-      <c r="J7" s="114">
+      <c r="J7" s="106">
         <f>J6*K7</f>
         <v>13.4862</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="107">
         <v>0.12</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="106">
         <f>L6*M7</f>
         <v>0.86450000000000016</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="107">
         <v>0.05</v>
       </c>
-      <c r="N7" s="117">
+      <c r="N7" s="109">
         <f>SUM(F7,H7,J7,L7)</f>
         <v>29.47945</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="31">
         <v>40</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="114">
+        <v>202</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="106">
         <f>F6*G8</f>
         <v>1.2967500000000001</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="107">
         <v>0.15</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="106">
         <f>H6*I8</f>
         <v>6.9160000000000013</v>
       </c>
-      <c r="I8" s="115">
+      <c r="I8" s="107">
         <v>0.2</v>
       </c>
-      <c r="J8" s="114">
+      <c r="J8" s="106">
         <f>J6*K8</f>
         <v>11.238500000000002</v>
       </c>
-      <c r="K8" s="115">
+      <c r="K8" s="107">
         <v>0.1</v>
       </c>
-      <c r="L8" s="114">
+      <c r="L8" s="106">
         <f>L6*M8</f>
         <v>0.86450000000000016</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8" s="107">
         <v>0.05</v>
       </c>
-      <c r="N8" s="117">
+      <c r="N8" s="109">
         <f>SUM(F8,H8,J8,L8)</f>
         <v>20.315750000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" s="31">
         <v>2</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="114">
+        <v>63</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="106">
         <f>F6*G9</f>
         <v>0.17290000000000003</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="107">
         <v>0.02</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="106">
         <f>H6*I9</f>
         <v>6.9160000000000013</v>
       </c>
-      <c r="I9" s="115">
+      <c r="I9" s="107">
         <v>0.2</v>
       </c>
-      <c r="J9" s="114">
+      <c r="J9" s="106">
         <f>J6*K9</f>
         <v>44.954000000000008</v>
       </c>
-      <c r="K9" s="115">
+      <c r="K9" s="107">
         <v>0.4</v>
       </c>
-      <c r="L9" s="114">
+      <c r="L9" s="106">
         <f>L6*M9</f>
         <v>2.5935000000000001</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="107">
         <v>0.15</v>
       </c>
-      <c r="N9" s="117">
+      <c r="N9" s="109">
         <f>SUM(F9,H9,J9,L9)</f>
         <v>54.636400000000009</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="119">
+      <c r="A10" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="111">
         <f>(B7*B8)*B9</f>
         <v>80</v>
       </c>
-      <c r="C10" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="114">
+      <c r="C10" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="106">
         <f>F6*G10</f>
         <v>0.43225000000000008</v>
       </c>
-      <c r="G10" s="115">
+      <c r="G10" s="107">
         <v>0.05</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="106">
         <f>H6*I10</f>
         <v>2.7664000000000004</v>
       </c>
-      <c r="I10" s="115">
+      <c r="I10" s="107">
         <v>0.08</v>
       </c>
-      <c r="J10" s="114">
+      <c r="J10" s="106">
         <f>J6*K10</f>
         <v>11.238500000000002</v>
       </c>
-      <c r="K10" s="115">
+      <c r="K10" s="107">
         <v>0.1</v>
       </c>
-      <c r="L10" s="114">
+      <c r="L10" s="106">
         <f>L6*M10</f>
         <v>1.7290000000000003</v>
       </c>
-      <c r="M10" s="115">
+      <c r="M10" s="107">
         <v>0.1</v>
       </c>
-      <c r="N10" s="117">
+      <c r="N10" s="109">
         <f>SUM(F10,H10,J10,L10)</f>
         <v>16.166150000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="120">
+      <c r="A11" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="112">
         <f>B6/B10*2</f>
         <v>4.3224999999999998</v>
       </c>
-      <c r="C11" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="114">
+      <c r="C11" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="106">
         <f>F6*G11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="115">
+      <c r="G11" s="107">
         <v>0</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="106">
         <f>H6*I11</f>
         <v>0.6916000000000001</v>
       </c>
-      <c r="I11" s="115">
+      <c r="I11" s="107">
         <v>0.02</v>
       </c>
-      <c r="J11" s="114">
+      <c r="J11" s="106">
         <f>J6*K11</f>
         <v>5.619250000000001</v>
       </c>
-      <c r="K11" s="115">
+      <c r="K11" s="107">
         <v>0.05</v>
       </c>
-      <c r="L11" s="114">
+      <c r="L11" s="106">
         <f>L6*M11</f>
         <v>1.7290000000000003</v>
       </c>
-      <c r="M11" s="115">
+      <c r="M11" s="107">
         <v>0.1</v>
       </c>
-      <c r="N11" s="117">
+      <c r="N11" s="109">
         <f>SUM(F11,H11,J11,L11)</f>
         <v>8.0398500000000013</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="120">
+      <c r="A12" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="112">
         <f>B11/4</f>
         <v>1.0806249999999999</v>
       </c>
-      <c r="C12" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="122">
+      <c r="C12" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="114">
         <f t="shared" ref="F12:M12" si="0">SUM(F7:F11)</f>
         <v>6.6566500000000017</v>
       </c>
-      <c r="G12" s="123">
+      <c r="G12" s="115">
         <f t="shared" si="0"/>
         <v>0.77000000000000013</v>
       </c>
-      <c r="H12" s="122">
+      <c r="H12" s="114">
         <f t="shared" si="0"/>
         <v>27.664000000000005</v>
       </c>
-      <c r="I12" s="123">
+      <c r="I12" s="115">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="114">
         <f t="shared" si="0"/>
         <v>86.536450000000002</v>
       </c>
-      <c r="K12" s="123">
+      <c r="K12" s="115">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-      <c r="L12" s="122">
+      <c r="L12" s="114">
         <f t="shared" si="0"/>
         <v>7.7805000000000009</v>
       </c>
-      <c r="M12" s="123">
+      <c r="M12" s="115">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="N12" s="121"/>
+      <c r="N12" s="113"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="124">
+      <c r="A13" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="116">
         <f>B11/B9</f>
         <v>2.1612499999999999</v>
       </c>
-      <c r="C13" s="118" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="116" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="114">
+      <c r="C13" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="106">
         <f>F6*G13</f>
         <v>0.25935000000000002</v>
       </c>
-      <c r="G13" s="115">
+      <c r="G13" s="107">
         <v>0.03</v>
       </c>
-      <c r="H13" s="114">
+      <c r="H13" s="106">
         <f>H6*I13</f>
         <v>2.7664000000000004</v>
       </c>
-      <c r="I13" s="115">
+      <c r="I13" s="107">
         <v>0.08</v>
       </c>
-      <c r="J13" s="114">
+      <c r="J13" s="106">
         <f>J6*K13</f>
         <v>14.610050000000001</v>
       </c>
-      <c r="K13" s="115">
+      <c r="K13" s="107">
         <v>0.13</v>
       </c>
-      <c r="L13" s="114">
+      <c r="L13" s="106">
         <f>L6*M13</f>
         <v>5.1870000000000003</v>
       </c>
-      <c r="M13" s="115">
+      <c r="M13" s="107">
         <v>0.3</v>
       </c>
-      <c r="N13" s="117">
+      <c r="N13" s="109">
         <f>SUM(F13,H13,J13,L13)</f>
         <v>22.822800000000004</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="114">
+      <c r="E14" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="106">
         <f>F6*G14</f>
         <v>1.7290000000000003</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="107">
         <v>0.2</v>
       </c>
-      <c r="H14" s="114">
+      <c r="H14" s="106">
         <f>H6*I14</f>
         <v>4.1496000000000004</v>
       </c>
-      <c r="I14" s="115">
+      <c r="I14" s="107">
         <v>0.12</v>
       </c>
-      <c r="J14" s="114">
+      <c r="J14" s="106">
         <f>J6*K14</f>
         <v>11.238500000000002</v>
       </c>
-      <c r="K14" s="115">
+      <c r="K14" s="107">
         <v>0.1</v>
       </c>
-      <c r="L14" s="114">
+      <c r="L14" s="106">
         <f>L6*M14</f>
         <v>4.3225000000000007</v>
       </c>
-      <c r="M14" s="115">
+      <c r="M14" s="107">
         <v>0.25</v>
       </c>
-      <c r="N14" s="117">
+      <c r="N14" s="109">
         <f>SUM(F14,H14,J14,L14)</f>
         <v>21.439600000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="121" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="122">
+      <c r="E15" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="114">
         <f t="shared" ref="F15:M15" si="1">SUM(F13:F14)</f>
         <v>1.9883500000000003</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G15" s="115">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="114">
         <f t="shared" si="1"/>
         <v>6.9160000000000004</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="115">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="114">
         <f t="shared" si="1"/>
         <v>25.848550000000003</v>
       </c>
-      <c r="K15" s="123">
+      <c r="K15" s="115">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="L15" s="122">
+      <c r="L15" s="114">
         <f t="shared" si="1"/>
         <v>9.509500000000001</v>
       </c>
-      <c r="M15" s="123">
+      <c r="M15" s="115">
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N15" s="121"/>
+      <c r="N15" s="113"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="165" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="165"/>
-      <c r="C16" s="165"/>
+      <c r="A16" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
       <c r="E16" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="125">
+        <v>217</v>
+      </c>
+      <c r="F16" s="117">
         <f t="shared" ref="F16:M16" si="2">F12+F15</f>
         <v>8.6450000000000014</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="118">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H16" s="125">
+      <c r="H16" s="117">
         <f t="shared" si="2"/>
         <v>34.580000000000005</v>
       </c>
-      <c r="I16" s="126">
+      <c r="I16" s="118">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J16" s="125">
+      <c r="J16" s="117">
         <f t="shared" si="2"/>
         <v>112.38500000000001</v>
       </c>
-      <c r="K16" s="126">
+      <c r="K16" s="118">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L16" s="125">
+      <c r="L16" s="117">
         <f t="shared" si="2"/>
         <v>17.290000000000003</v>
       </c>
-      <c r="M16" s="126">
+      <c r="M16" s="118">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N16" s="127">
+      <c r="N16" s="119">
         <f>SUM(N7:N11,N13,N14)</f>
         <v>172.90000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="128">
+        <v>67</v>
+      </c>
+      <c r="B17" s="120">
         <v>20</v>
       </c>
       <c r="C17" s="38"/>
-      <c r="N17" s="72"/>
+      <c r="N17" s="64"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="39">
         <f>B6*B17</f>
         <v>3458</v>
       </c>
       <c r="C18" s="38"/>
-      <c r="L18" s="72"/>
-      <c r="N18" s="72"/>
+      <c r="L18" s="64"/>
+      <c r="N18" s="64"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="29">
         <v>0</v>
       </c>
       <c r="C19" s="38"/>
-      <c r="N19" s="72"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="40">
         <f>B18*B19</f>
         <v>0</v>
       </c>
       <c r="C20" s="38"/>
-      <c r="L20" s="72"/>
-      <c r="N20" s="72"/>
+      <c r="L20" s="64"/>
+      <c r="N20" s="64"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="129">
+        <v>218</v>
+      </c>
+      <c r="B21" s="121">
         <f>B18+B20</f>
         <v>3458</v>
       </c>
       <c r="C21" s="38"/>
-      <c r="N21" s="72"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="29">
         <v>0.2</v>
       </c>
       <c r="C22" s="38"/>
-      <c r="J22" s="72"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="43">
         <f>B21*B22</f>
@@ -12011,25 +12045,25 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="129">
+        <v>219</v>
+      </c>
+      <c r="B24" s="121">
         <f>B21+B23</f>
         <v>4149.6000000000004</v>
       </c>
       <c r="C24" s="38"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J26" s="72"/>
+      <c r="J26" s="64"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="72"/>
+      <c r="J27" s="64"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N28" s="72"/>
+      <c r="N28" s="64"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N29" s="72"/>
+      <c r="N29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
+++ b/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\teste\chamado-pro\CHP\6.Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -6474,6 +6474,37 @@
     <xf numFmtId="164" fontId="39" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="40" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="40" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6481,18 +6512,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6501,6 +6520,18 @@
     <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6518,21 +6549,6 @@
     </xf>
     <xf numFmtId="164" fontId="28" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6548,6 +6564,21 @@
     <xf numFmtId="164" fontId="31" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6577,37 +6608,6 @@
     </xf>
     <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="40" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="40" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -8490,7 +8490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -8504,18 +8504,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8651,8 +8651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8672,38 +8672,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="F1" s="125" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="F1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="F2" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8724,20 +8724,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="128" t="s">
+      <c r="H3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8970,11 +8970,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>24</v>
@@ -9077,7 +9077,7 @@
         <v>232</v>
       </c>
       <c r="D15" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
@@ -9101,7 +9101,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="12"/>
@@ -9149,7 +9149,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="12"/>
@@ -9201,14 +9201,14 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="8">
         <f>SUM(D12:D20)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -9404,11 +9404,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="8">
         <f>SUM(D22:D34)</f>
         <v>102</v>
@@ -9541,9 +9541,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="130"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="8">
         <f>SUM(D36:D44)</f>
         <v>28</v>
@@ -9552,21 +9552,21 @@
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D46" s="24">
         <f>SUM(D11,D21,D35,D45)</f>
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9594,19 +9594,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="B4" s="27">
         <f>Backlog_Produto!$D$46</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>52</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B9" s="34">
         <f>B11/2</f>
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>60</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B10" s="34">
         <f>B4+(B4*B5)</f>
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>52</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="B11" s="32">
         <f>B10/B8*2</f>
-        <v>5.94</v>
+        <v>6.06</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>63</v>
@@ -9708,18 +9708,18 @@
       </c>
       <c r="B12" s="36">
         <f>B11/4</f>
-        <v>1.4850000000000001</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B16" s="39">
         <f>B10*B15</f>
-        <v>5940</v>
+        <v>6060</v>
       </c>
       <c r="C16" s="38"/>
     </row>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="B18" s="40">
         <f>B16*B17</f>
-        <v>1188</v>
+        <v>1212</v>
       </c>
       <c r="C18" s="38"/>
     </row>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="B19" s="42">
         <f>B16+B18</f>
-        <v>7128</v>
+        <v>7272</v>
       </c>
       <c r="C19" s="38"/>
     </row>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B21" s="43">
         <f>B19*B20</f>
-        <v>1425.6000000000001</v>
+        <v>1454.4</v>
       </c>
       <c r="C21" s="38"/>
     </row>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="B22" s="42">
         <f>B19+B21</f>
-        <v>8553.6</v>
+        <v>8726.4</v>
       </c>
       <c r="C22" s="38"/>
     </row>
@@ -9833,54 +9833,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="44">
         <f>Planejamento!$B$10</f>
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F2" s="45"/>
-      <c r="G2" s="135" t="s">
+      <c r="G2" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
       <c r="J3" s="50"/>
       <c r="K3" s="51"/>
     </row>
@@ -9923,35 +9923,35 @@
       <c r="A5" s="53">
         <v>1</v>
       </c>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="160">
+      <c r="C5" s="124">
         <v>45894</v>
       </c>
-      <c r="D5" s="160">
+      <c r="D5" s="124">
         <v>45903</v>
       </c>
-      <c r="E5" s="161">
+      <c r="E5" s="125">
         <v>24</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="160">
+      <c r="G5" s="124">
         <v>43132</v>
       </c>
-      <c r="H5" s="160">
+      <c r="H5" s="124">
         <v>43160</v>
       </c>
-      <c r="I5" s="161">
+      <c r="I5" s="125">
         <v>28</v>
       </c>
-      <c r="J5" s="163">
+      <c r="J5" s="127">
         <f>E5-I5</f>
         <v>-4</v>
       </c>
-      <c r="K5" s="164" t="s">
+      <c r="K5" s="128" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9959,51 +9959,51 @@
       <c r="A6" s="53">
         <v>2</v>
       </c>
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="160">
+      <c r="C6" s="124">
         <v>45904</v>
       </c>
-      <c r="D6" s="160">
+      <c r="D6" s="124">
         <v>45931</v>
       </c>
-      <c r="E6" s="165">
+      <c r="E6" s="129">
         <v>36</v>
       </c>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="164"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <v>3</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="123" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="160">
+      <c r="C7" s="124">
         <v>45932</v>
       </c>
-      <c r="D7" s="160">
+      <c r="D7" s="124">
         <v>45951</v>
       </c>
-      <c r="E7" s="161">
+      <c r="E7" s="125">
         <v>24</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="164"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
@@ -10021,7 +10021,7 @@
       <c r="E8" s="56">
         <v>34</v>
       </c>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="126" t="s">
         <v>90</v>
       </c>
       <c r="G8" s="55"/>
@@ -10257,19 +10257,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -10423,10 +10423,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="139" t="s">
+      <c r="D33" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="139"/>
+      <c r="E33" s="153"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="70">
@@ -10478,137 +10478,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
     </row>
     <row r="42" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="141" t="s">
+      <c r="A42" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
     </row>
     <row r="43" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
     </row>
     <row r="44" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="145" t="s">
+      <c r="A46" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
     </row>
     <row r="47" spans="1:11" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="74" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="75"/>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
     </row>
     <row r="48" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="147"/>
-      <c r="B48" s="143" t="s">
+      <c r="A48" s="150"/>
+      <c r="B48" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="143" t="s">
+      <c r="D48" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="143" t="s">
+      <c r="E48" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="143" t="s">
+      <c r="F48" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="143" t="s">
+      <c r="G48" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="148" t="s">
+      <c r="H48" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="148"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
     </row>
     <row r="49" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="147"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143" t="s">
+      <c r="A49" s="150"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="143"/>
+      <c r="I49" s="146"/>
       <c r="J49" s="77" t="s">
         <v>142</v>
       </c>
@@ -10639,8 +10639,8 @@
       <c r="G50" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
       <c r="J50" s="84"/>
       <c r="K50" s="84" t="s">
         <v>145</v>
@@ -10787,8 +10787,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="82"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
+      <c r="H59" s="147"/>
+      <c r="I59" s="147"/>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
     </row>
@@ -10803,13 +10803,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="82"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
@@ -10824,12 +10830,6 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:K48"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
@@ -10892,116 +10892,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
     </row>
     <row r="2" spans="1:23" s="87" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
     </row>
     <row r="3" spans="1:23" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
     </row>
     <row r="4" spans="1:23" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
     </row>
     <row r="5" spans="1:23" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="D7" s="149" t="s">
+      <c r="B7" s="157"/>
+      <c r="D7" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="G7" s="149" t="s">
+      <c r="E7" s="157"/>
+      <c r="G7" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="M7" s="149" t="s">
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="M7" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="149"/>
+      <c r="N7" s="157"/>
     </row>
     <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
@@ -11101,13 +11101,13 @@
       <c r="B11" s="89"/>
       <c r="D11" s="88"/>
       <c r="E11" s="89"/>
-      <c r="G11" s="149" t="s">
+      <c r="G11" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
       <c r="M11" s="92" t="s">
         <v>171</v>
       </c>
@@ -11210,12 +11210,12 @@
       <c r="B16" s="89"/>
       <c r="D16" s="88"/>
       <c r="E16" s="89"/>
-      <c r="G16" s="150" t="s">
+      <c r="G16" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
       <c r="K16" s="94">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
@@ -11380,42 +11380,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="E3" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
@@ -11428,25 +11428,25 @@
       <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="166" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="156" t="s">
+      <c r="F4" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156" t="s">
+      <c r="I4" s="164"/>
+      <c r="J4" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156" t="s">
+      <c r="K4" s="164"/>
+      <c r="L4" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="156"/>
+      <c r="M4" s="164"/>
       <c r="N4" s="103"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -11459,23 +11459,23 @@
       <c r="C5" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="158"/>
-      <c r="F5" s="156" t="s">
+      <c r="E5" s="166"/>
+      <c r="F5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156" t="s">
+      <c r="G5" s="164"/>
+      <c r="H5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156" t="s">
+      <c r="I5" s="164"/>
+      <c r="J5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156" t="s">
+      <c r="K5" s="164"/>
+      <c r="L5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="156"/>
+      <c r="M5" s="164"/>
       <c r="N5" s="41" t="s">
         <v>197</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="C6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="158"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="106">
         <f>B6*G6</f>
         <v>8.6450000000000014</v>
@@ -11923,11 +11923,11 @@
       <c r="N15" s="113"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
       <c r="E16" s="41" t="s">
         <v>217</v>
       </c>

--- a/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
+++ b/CHP/6.Gerenciamento de Projeto/Planejamento e Controle do Projeto.xlsx
@@ -6512,6 +6512,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6520,18 +6532,6 @@
     <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6549,6 +6549,21 @@
     </xf>
     <xf numFmtId="164" fontId="28" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6563,21 +6578,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="31" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8651,8 +8651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8672,38 +8672,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="F1" s="136" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="F1" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="F2" s="138" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="F2" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8724,20 +8724,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8970,11 +8970,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>24</v>
@@ -9201,11 +9201,11 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="8">
         <f>SUM(D12:D20)</f>
         <v>48</v>
@@ -9404,11 +9404,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="133" t="s">
+      <c r="A35" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="137"/>
       <c r="D35" s="8">
         <f>SUM(D22:D34)</f>
         <v>102</v>
@@ -9541,9 +9541,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="134"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="A45" s="138"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
       <c r="D45" s="8">
         <f>SUM(D36:D44)</f>
         <v>28</v>
@@ -9557,16 +9557,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10423,10 +10423,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="153" t="s">
+      <c r="D33" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="153"/>
+      <c r="E33" s="147"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="70">
@@ -10478,137 +10478,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="154"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
     </row>
     <row r="42" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
     </row>
     <row r="43" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
     </row>
     <row r="44" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
     </row>
     <row r="47" spans="1:11" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="74" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="75"/>
-      <c r="C47" s="149" t="s">
+      <c r="C47" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="149"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="149"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
     </row>
     <row r="48" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="150"/>
-      <c r="B48" s="146" t="s">
+      <c r="A48" s="155"/>
+      <c r="B48" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="146" t="s">
+      <c r="D48" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="146" t="s">
+      <c r="E48" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="146" t="s">
+      <c r="F48" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="146" t="s">
+      <c r="G48" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="151" t="s">
+      <c r="H48" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
     </row>
     <row r="49" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="150"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146" t="s">
+      <c r="A49" s="155"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="146"/>
+      <c r="I49" s="151"/>
       <c r="J49" s="77" t="s">
         <v>142</v>
       </c>
@@ -10639,8 +10639,8 @@
       <c r="G50" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
       <c r="J50" s="84"/>
       <c r="K50" s="84" t="s">
         <v>145</v>
@@ -10787,8 +10787,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="82"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
     </row>
@@ -10803,19 +10803,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="82"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
@@ -10830,6 +10824,12 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:K48"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
